--- a/FME_files/LOOKUP_TABLES/NonGeoLookupTables.xlsx
+++ b/FME_files/LOOKUP_TABLES/NonGeoLookupTables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\fgp-metadata-proxy\FME_files\LOOKUP_TABLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA422D2-974F-44B5-B2DC-4656772F3602}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE13BA1-C5D0-444B-A32D-FF073E326E17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6790" yWindow="4380" windowWidth="28800" windowHeight="15460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3090" yWindow="1540" windowWidth="28800" windowHeight="15460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Format_TBS" sheetId="1" r:id="rId1"/>
@@ -1511,7 +1511,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.54296875" customWidth="1"/>
+    <col min="1" max="1" width="39.1796875" customWidth="1"/>
     <col min="2" max="2" width="20.36328125" customWidth="1"/>
     <col min="3" max="3" width="26.6328125" customWidth="1"/>
     <col min="4" max="4" width="15.453125" customWidth="1"/>

--- a/FME_files/LOOKUP_TABLES/NonGeoLookupTables.xlsx
+++ b/FME_files/LOOKUP_TABLES/NonGeoLookupTables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\fgp-metadata-proxy\FME_files\LOOKUP_TABLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE13BA1-C5D0-444B-A32D-FF073E326E17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7913F9A6-EB70-4C0C-A23C-93C942C4D262}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="1540" windowWidth="28800" windowHeight="15460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3200" yWindow="7350" windowWidth="19580" windowHeight="11110" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Format_TBS" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="122">
   <si>
     <t>TBS_value</t>
   </si>
@@ -379,6 +379,30 @@
   </si>
   <si>
     <t>agriculture</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>periodically</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>as_required</t>
+  </si>
+  <si>
+    <t>biannually</t>
+  </si>
+  <si>
+    <t>historical</t>
+  </si>
+  <si>
+    <t>yearly</t>
+  </si>
+  <si>
+    <t>never</t>
   </si>
 </sst>
 </file>
@@ -1222,10 +1246,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{589F8EF7-A369-418C-AD91-10E8DD305FDA}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1408,6 +1432,149 @@
       </c>
       <c r="C16" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1505,7 +1672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859D5EAD-7742-45A1-BF94-958933ADEE28}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>

--- a/FME_files/LOOKUP_TABLES/NonGeoLookupTables.xlsx
+++ b/FME_files/LOOKUP_TABLES/NonGeoLookupTables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\fgp-metadata-proxy\FME_files\LOOKUP_TABLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7913F9A6-EB70-4C0C-A23C-93C942C4D262}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA98F4F-2418-45D8-851C-0ED6A9BB6C71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="7350" windowWidth="19580" windowHeight="11110" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25965" yWindow="17700" windowWidth="22710" windowHeight="14445" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Format_TBS" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="137">
   <si>
     <t>TBS_value</t>
   </si>
@@ -294,9 +294,6 @@
     <t>guide</t>
   </si>
   <si>
-    <t>province_Code</t>
-  </si>
-  <si>
     <t>TBS_topic</t>
   </si>
   <si>
@@ -403,6 +400,54 @@
   </si>
   <si>
     <t>never</t>
+  </si>
+  <si>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t>txt</t>
+  </si>
+  <si>
+    <t>xml</t>
+  </si>
+  <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>xlsx</t>
+  </si>
+  <si>
+    <t>docx</t>
+  </si>
+  <si>
+    <t>xls</t>
+  </si>
+  <si>
+    <t>csv</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>doc</t>
+  </si>
+  <si>
+    <t>application/msaccess</t>
+  </si>
+  <si>
+    <t>application</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>technical_document</t>
+  </si>
+  <si>
+    <t>data_dictionary</t>
+  </si>
+  <si>
+    <t>information</t>
   </si>
 </sst>
 </file>
@@ -720,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C46"/>
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1239,6 +1284,138 @@
         <v>50</v>
       </c>
     </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>124</v>
+      </c>
+      <c r="B51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>125</v>
+      </c>
+      <c r="B52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>127</v>
+      </c>
+      <c r="B54" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>128</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>129</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>130</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>131</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1248,7 +1425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{589F8EF7-A369-418C-AD91-10E8DD305FDA}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -1442,7 +1619,7 @@
         <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -1453,7 +1630,7 @@
         <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -1464,7 +1641,7 @@
         <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -1475,29 +1652,29 @@
         <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B22" t="s">
         <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -1508,40 +1685,40 @@
         <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B24" t="s">
         <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B25" t="s">
         <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B26" t="s">
         <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -1552,29 +1729,29 @@
         <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B28" t="s">
         <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B29" t="s">
         <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1584,15 +1761,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0DA827-7F8F-427A-89AE-B21D8717466C}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" customWidth="1"/>
     <col min="2" max="2" width="14.90625" customWidth="1"/>
     <col min="3" max="3" width="15.453125" customWidth="1"/>
   </cols>
@@ -1605,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -1661,6 +1838,72 @@
       </c>
       <c r="C6" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1673,7 +1916,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1689,10 +1932,10 @@
         <v>48</v>
       </c>
       <c r="B1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" t="s">
         <v>86</v>
-      </c>
-      <c r="C1" t="s">
-        <v>87</v>
       </c>
       <c r="D1" t="s">
         <v>49</v>
@@ -1703,10 +1946,10 @@
         <v>41</v>
       </c>
       <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
         <v>88</v>
-      </c>
-      <c r="C2" t="s">
-        <v>89</v>
       </c>
       <c r="D2" t="s">
         <v>50</v>
@@ -1714,13 +1957,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
         <v>90</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>91</v>
-      </c>
-      <c r="C3" t="s">
-        <v>92</v>
       </c>
       <c r="D3" t="s">
         <v>50</v>
@@ -1728,13 +1971,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
         <v>88</v>
-      </c>
-      <c r="C4" t="s">
-        <v>89</v>
       </c>
       <c r="D4" t="s">
         <v>50</v>
@@ -1742,13 +1985,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" t="s">
         <v>88</v>
-      </c>
-      <c r="C5" t="s">
-        <v>89</v>
       </c>
       <c r="D5" t="s">
         <v>50</v>
@@ -1756,13 +1999,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" t="s">
         <v>95</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>96</v>
-      </c>
-      <c r="C6" t="s">
-        <v>97</v>
       </c>
       <c r="D6" t="s">
         <v>50</v>
@@ -1770,13 +2013,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" t="s">
         <v>98</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>99</v>
-      </c>
-      <c r="C7" t="s">
-        <v>100</v>
       </c>
       <c r="D7" t="s">
         <v>50</v>
@@ -1784,13 +2027,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" t="s">
         <v>101</v>
-      </c>
-      <c r="B8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" t="s">
-        <v>102</v>
       </c>
       <c r="D8" t="s">
         <v>50</v>
@@ -1798,13 +2041,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" t="s">
         <v>103</v>
-      </c>
-      <c r="B9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" t="s">
-        <v>104</v>
       </c>
       <c r="D9" t="s">
         <v>50</v>
@@ -1812,13 +2055,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
         <v>50</v>
@@ -1826,13 +2069,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" t="s">
         <v>106</v>
       </c>
-      <c r="B11" t="s">
-        <v>107</v>
-      </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
         <v>50</v>
@@ -1840,13 +2083,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
         <v>108</v>
-      </c>
-      <c r="B12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" t="s">
-        <v>109</v>
       </c>
       <c r="D12" t="s">
         <v>50</v>
@@ -1854,13 +2097,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D13" t="s">
         <v>50</v>
@@ -1868,13 +2111,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" t="s">
         <v>111</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>112</v>
-      </c>
-      <c r="C14" t="s">
-        <v>113</v>
       </c>
       <c r="D14" t="s">
         <v>50</v>

--- a/FME_files/LOOKUP_TABLES/NonGeoLookupTables.xlsx
+++ b/FME_files/LOOKUP_TABLES/NonGeoLookupTables.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\fgp-metadata-proxy\FME_files\LOOKUP_TABLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA98F4F-2418-45D8-851C-0ED6A9BB6C71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87306B70-DAFC-432C-BB40-4B6FDA41B1B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25965" yWindow="17700" windowWidth="22710" windowHeight="14445" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="15140" windowHeight="9630" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Format_TBS" sheetId="1" r:id="rId1"/>
     <sheet name="Update_TBS" sheetId="2" r:id="rId2"/>
     <sheet name="ResourceType_TBS" sheetId="3" r:id="rId3"/>
-    <sheet name="SubjectNTopic_TBS" sheetId="4" r:id="rId4"/>
+    <sheet name="Subject_TBS_ON" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="288">
   <si>
     <t>TBS_value</t>
   </si>
@@ -294,87 +294,36 @@
     <t>guide</t>
   </si>
   <si>
-    <t>TBS_topic</t>
-  </si>
-  <si>
-    <t>TBS_subject</t>
-  </si>
-  <si>
-    <t>society</t>
-  </si>
-  <si>
     <t>society_and_culture</t>
   </si>
   <si>
-    <t>sante</t>
-  </si>
-  <si>
     <t>health</t>
   </si>
   <si>
     <t>health_and_safety</t>
   </si>
   <si>
-    <t>societe-culture</t>
-  </si>
-  <si>
-    <t>tourisme-sports-loisirs</t>
-  </si>
-  <si>
-    <t>economie-entreprises</t>
-  </si>
-  <si>
-    <t>economy</t>
-  </si>
-  <si>
     <t>economics_and_industry</t>
   </si>
   <si>
-    <t>environnement-ressources-naturelles-energie</t>
-  </si>
-  <si>
     <t>environment</t>
   </si>
   <si>
     <t>nature_and_environment</t>
   </si>
   <si>
-    <t>politiques-sociales</t>
-  </si>
-  <si>
     <t>government_and_politics</t>
   </si>
   <si>
-    <t>education-recherche</t>
-  </si>
-  <si>
     <t>education_and_training</t>
   </si>
   <si>
-    <t>gouvernement-finances</t>
-  </si>
-  <si>
-    <t>infrastructures</t>
-  </si>
-  <si>
-    <t>structure</t>
-  </si>
-  <si>
-    <t>loi-justice-securite-publique</t>
-  </si>
-  <si>
     <t>law</t>
   </si>
   <si>
     <t>transport</t>
   </si>
   <si>
-    <t>agriculture-alimentation</t>
-  </si>
-  <si>
-    <t>farming</t>
-  </si>
-  <si>
     <t>agriculture</t>
   </si>
   <si>
@@ -448,6 +397,510 @@
   </si>
   <si>
     <t>information</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>agriculture and food</t>
+  </si>
+  <si>
+    <t>alternate species</t>
+  </si>
+  <si>
+    <t>annual report</t>
+  </si>
+  <si>
+    <t>ignore</t>
+  </si>
+  <si>
+    <t>arts and culture</t>
+  </si>
+  <si>
+    <t>arts_music_literature</t>
+  </si>
+  <si>
+    <t>beef</t>
+  </si>
+  <si>
+    <t>benefits</t>
+  </si>
+  <si>
+    <t>breeding</t>
+  </si>
+  <si>
+    <t>business and economy</t>
+  </si>
+  <si>
+    <t>calving</t>
+  </si>
+  <si>
+    <t>cantor</t>
+  </si>
+  <si>
+    <t>persons</t>
+  </si>
+  <si>
+    <t>carpool</t>
+  </si>
+  <si>
+    <t>cases</t>
+  </si>
+  <si>
+    <t>child care</t>
+  </si>
+  <si>
+    <t>citizen science</t>
+  </si>
+  <si>
+    <t>clergy</t>
+  </si>
+  <si>
+    <t>commute</t>
+  </si>
+  <si>
+    <t>coronavirus</t>
+  </si>
+  <si>
+    <t>correctional institutions</t>
+  </si>
+  <si>
+    <t>corrections</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>covid</t>
+  </si>
+  <si>
+    <t>covid-19</t>
+  </si>
+  <si>
+    <t>covid-19 testing locations</t>
+  </si>
+  <si>
+    <t>credits</t>
+  </si>
+  <si>
+    <t>culture and recreation</t>
+  </si>
+  <si>
+    <t>culture et loisirs</t>
+  </si>
+  <si>
+    <t>dairy</t>
+  </si>
+  <si>
+    <t>denning</t>
+  </si>
+  <si>
+    <t>dépistage de la covid-19</t>
+  </si>
+  <si>
+    <t>détenus</t>
+  </si>
+  <si>
+    <t>diesel</t>
+  </si>
+  <si>
+    <t>données ontario</t>
+  </si>
+  <si>
+    <t>driving and roads</t>
+  </si>
+  <si>
+    <t>écoles</t>
+  </si>
+  <si>
+    <t>économie et affaires</t>
+  </si>
+  <si>
+    <t>economy and business</t>
+  </si>
+  <si>
+    <t>education and training</t>
+  </si>
+  <si>
+    <t>éducation et formation</t>
+  </si>
+  <si>
+    <t>elder</t>
+  </si>
+  <si>
+    <t>elderly</t>
+  </si>
+  <si>
+    <t>élémentaire</t>
+  </si>
+  <si>
+    <t>elementary</t>
+  </si>
+  <si>
+    <t>emrb</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>environment and energy</t>
+  </si>
+  <si>
+    <t>science_and_technology</t>
+  </si>
+  <si>
+    <t>environment and natural resources</t>
+  </si>
+  <si>
+    <t>environnement et énergie</t>
+  </si>
+  <si>
+    <t>environnement et richesses naturelles</t>
+  </si>
+  <si>
+    <t>établissements correctionnels</t>
+  </si>
+  <si>
+    <t>état</t>
+  </si>
+  <si>
+    <t>fair market value</t>
+  </si>
+  <si>
+    <t>fawning</t>
+  </si>
+  <si>
+    <t>feeding</t>
+  </si>
+  <si>
+    <t>fisheries</t>
+  </si>
+  <si>
+    <t>fishing</t>
+  </si>
+  <si>
+    <t>forest management planning</t>
+  </si>
+  <si>
+    <t>fuel</t>
+  </si>
+  <si>
+    <t>gasoline</t>
+  </si>
+  <si>
+    <t>general habitat</t>
+  </si>
+  <si>
+    <t>gouvernement</t>
+  </si>
+  <si>
+    <t>gouvernement et finances</t>
+  </si>
+  <si>
+    <t>government</t>
+  </si>
+  <si>
+    <t>government and finance</t>
+  </si>
+  <si>
+    <t>guaranteed annual income system</t>
+  </si>
+  <si>
+    <t>health and wellness</t>
+  </si>
+  <si>
+    <t>home and community</t>
+  </si>
+  <si>
+    <t>hôpitaux</t>
+  </si>
+  <si>
+    <t>hospital</t>
+  </si>
+  <si>
+    <t>housing communities and social support</t>
+  </si>
+  <si>
+    <t>imam</t>
+  </si>
+  <si>
+    <t>impôt sur le revenu</t>
+  </si>
+  <si>
+    <t>impôts et avantages fiscaux</t>
+  </si>
+  <si>
+    <t>income tax</t>
+  </si>
+  <si>
+    <t>infrastructure and transportation</t>
+  </si>
+  <si>
+    <t>infrastructure et transport</t>
+  </si>
+  <si>
+    <t>inland lakes</t>
+  </si>
+  <si>
+    <t>inmates</t>
+  </si>
+  <si>
+    <t>jobs and employment</t>
+  </si>
+  <si>
+    <t>labour</t>
+  </si>
+  <si>
+    <t>junior</t>
+  </si>
+  <si>
+    <t>justice and public safety</t>
+  </si>
+  <si>
+    <t>lacs</t>
+  </si>
+  <si>
+    <t>lakes</t>
+  </si>
+  <si>
+    <t>lamb</t>
+  </si>
+  <si>
+    <t>law and safety</t>
+  </si>
+  <si>
+    <t>livestock</t>
+  </si>
+  <si>
+    <t>logement collectivités et soutien social</t>
+  </si>
+  <si>
+    <t>lois et sécurité</t>
+  </si>
+  <si>
+    <t>mariage</t>
+  </si>
+  <si>
+    <t>market value</t>
+  </si>
+  <si>
+    <t>marriage</t>
+  </si>
+  <si>
+    <t>marriage officiant</t>
+  </si>
+  <si>
+    <t>migration</t>
+  </si>
+  <si>
+    <t>minister</t>
+  </si>
+  <si>
+    <t>missing persons</t>
+  </si>
+  <si>
+    <t>natural gas</t>
+  </si>
+  <si>
+    <t>nesting birds</t>
+  </si>
+  <si>
+    <t>nesting reptiles</t>
+  </si>
+  <si>
+    <t>nesting site</t>
+  </si>
+  <si>
+    <t>northern health programs</t>
+  </si>
+  <si>
+    <t>nurse</t>
+  </si>
+  <si>
+    <t>nursery</t>
+  </si>
+  <si>
+    <t>officiant</t>
+  </si>
+  <si>
+    <t>old age security</t>
+  </si>
+  <si>
+    <t>opp annual report</t>
+  </si>
+  <si>
+    <t>owb</t>
+  </si>
+  <si>
+    <t>parking lots</t>
+  </si>
+  <si>
+    <t>pastor</t>
+  </si>
+  <si>
+    <t>payroll deduction</t>
+  </si>
+  <si>
+    <t>phone number</t>
+  </si>
+  <si>
+    <t>poultry</t>
+  </si>
+  <si>
+    <t>prêtre</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>priest</t>
+  </si>
+  <si>
+    <t>program funding</t>
+  </si>
+  <si>
+    <t>propane</t>
+  </si>
+  <si>
+    <t>puits</t>
+  </si>
+  <si>
+    <t>rabbi</t>
+  </si>
+  <si>
+    <t>rates</t>
+  </si>
+  <si>
+    <t>régions rurales et du nord</t>
+  </si>
+  <si>
+    <t>regulations</t>
+  </si>
+  <si>
+    <t>resting</t>
+  </si>
+  <si>
+    <t>reverend</t>
+  </si>
+  <si>
+    <t>rules</t>
+  </si>
+  <si>
+    <t>rural and north</t>
+  </si>
+  <si>
+    <t>santé</t>
+  </si>
+  <si>
+    <t>santé et bien-être</t>
+  </si>
+  <si>
+    <t>schools</t>
+  </si>
+  <si>
+    <t>secondaire</t>
+  </si>
+  <si>
+    <t>secondary</t>
+  </si>
+  <si>
+    <t>seed collection</t>
+  </si>
+  <si>
+    <t>seed deployment</t>
+  </si>
+  <si>
+    <t>seed zone</t>
+  </si>
+  <si>
+    <t>seniors</t>
+  </si>
+  <si>
+    <t>services correctionnels</t>
+  </si>
+  <si>
+    <t>sheep</t>
+  </si>
+  <si>
+    <t>sikh</t>
+  </si>
+  <si>
+    <t>staging</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>swine</t>
+  </si>
+  <si>
+    <t>taux</t>
+  </si>
+  <si>
+    <t>taxes</t>
+  </si>
+  <si>
+    <t>taxes and benefits</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>travail et emploi</t>
+  </si>
+  <si>
+    <t>travel</t>
+  </si>
+  <si>
+    <t>travel and recreation</t>
+  </si>
+  <si>
+    <t>travel corridor</t>
+  </si>
+  <si>
+    <t>tree seed</t>
+  </si>
+  <si>
+    <t>underserviced area programs</t>
+  </si>
+  <si>
+    <t>urgent demands for records</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>volailles</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>water quality</t>
+  </si>
+  <si>
+    <t>watershed</t>
+  </si>
+  <si>
+    <t>wedding</t>
+  </si>
+  <si>
+    <t>wells</t>
+  </si>
+  <si>
+    <t>wildlife</t>
+  </si>
+  <si>
+    <t>wintering</t>
+  </si>
+  <si>
+    <t>tag_value</t>
+  </si>
+  <si>
+    <t>subject_value</t>
   </si>
 </sst>
 </file>
@@ -1292,128 +1745,128 @@
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B48" t="s">
         <v>26</v>
       </c>
       <c r="C48" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="B49" t="s">
         <v>40</v>
       </c>
       <c r="C49" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="B50" t="s">
         <v>44</v>
       </c>
       <c r="C50" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B51" t="s">
         <v>45</v>
       </c>
       <c r="C51" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="B52" t="s">
         <v>43</v>
       </c>
       <c r="C52" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B54" t="s">
         <v>42</v>
       </c>
       <c r="C54" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="B55" t="s">
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B56" t="s">
         <v>18</v>
       </c>
       <c r="C56" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B58" t="s">
         <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1619,7 +2072,7 @@
         <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -1630,7 +2083,7 @@
         <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -1641,7 +2094,7 @@
         <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -1652,29 +2105,29 @@
         <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B22" t="s">
         <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -1685,40 +2138,40 @@
         <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B24" t="s">
         <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="B25" t="s">
         <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="B26" t="s">
         <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -1729,29 +2182,29 @@
         <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="B28" t="s">
         <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B29" t="s">
         <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1763,7 +2216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0DA827-7F8F-427A-89AE-B21D8717466C}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -1848,62 +2301,62 @@
         <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1912,215 +2365,1617 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859D5EAD-7742-45A1-BF94-958933ADEE28}">
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9DC00A4-140D-49DA-BDB7-780ECFA36618}">
+  <dimension ref="A1:B200"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.1796875" customWidth="1"/>
-    <col min="2" max="2" width="20.36328125" customWidth="1"/>
-    <col min="3" max="3" width="26.6328125" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="1" max="1" width="19.08984375" customWidth="1"/>
+    <col min="2" max="2" width="24.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>286</v>
       </c>
       <c r="B1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" t="s">
         <v>85</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>149</v>
+      </c>
+      <c r="B33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>151</v>
+      </c>
+      <c r="B36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>152</v>
+      </c>
+      <c r="B37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>153</v>
+      </c>
+      <c r="B38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>155</v>
+      </c>
+      <c r="B40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>156</v>
+      </c>
+      <c r="B41" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>157</v>
+      </c>
+      <c r="B42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>158</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>159</v>
+      </c>
+      <c r="B44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>160</v>
+      </c>
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>161</v>
+      </c>
+      <c r="B46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>162</v>
+      </c>
+      <c r="B47" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>163</v>
+      </c>
+      <c r="B48" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>164</v>
+      </c>
+      <c r="B49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>165</v>
+      </c>
+      <c r="B50" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>166</v>
+      </c>
+      <c r="B51" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>167</v>
+      </c>
+      <c r="B52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>168</v>
+      </c>
+      <c r="B54" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>168</v>
+      </c>
+      <c r="B55" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>168</v>
+      </c>
+      <c r="B56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>170</v>
+      </c>
+      <c r="B57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>170</v>
+      </c>
+      <c r="B58" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>170</v>
+      </c>
+      <c r="B59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>171</v>
+      </c>
+      <c r="B60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>171</v>
+      </c>
+      <c r="B61" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>171</v>
+      </c>
+      <c r="B62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>172</v>
+      </c>
+      <c r="B63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>172</v>
+      </c>
+      <c r="B64" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>172</v>
+      </c>
+      <c r="B65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>173</v>
+      </c>
+      <c r="B66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>174</v>
+      </c>
+      <c r="B67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>175</v>
+      </c>
+      <c r="B68" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>176</v>
+      </c>
+      <c r="B69" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>177</v>
+      </c>
+      <c r="B70" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>178</v>
+      </c>
+      <c r="B71" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>179</v>
+      </c>
+      <c r="B72" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>180</v>
+      </c>
+      <c r="B73" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>181</v>
+      </c>
+      <c r="B74" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>182</v>
+      </c>
+      <c r="B75" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>183</v>
+      </c>
+      <c r="B76" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>184</v>
+      </c>
+      <c r="B77" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>185</v>
+      </c>
+      <c r="B78" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>185</v>
+      </c>
+      <c r="B79" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>186</v>
+      </c>
+      <c r="B80" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>187</v>
+      </c>
+      <c r="B81" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>187</v>
+      </c>
+      <c r="B82" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>188</v>
+      </c>
+      <c r="B83" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
         <v>86</v>
       </c>
-      <c r="D1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B84" t="s">
         <v>87</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>189</v>
+      </c>
+      <c r="B85" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>190</v>
+      </c>
+      <c r="B86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>191</v>
+      </c>
+      <c r="B87" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>192</v>
+      </c>
+      <c r="B88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>193</v>
+      </c>
+      <c r="B89" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>194</v>
+      </c>
+      <c r="B90" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>194</v>
+      </c>
+      <c r="B91" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>195</v>
+      </c>
+      <c r="B92" t="s">
         <v>88</v>
       </c>
-      <c r="D2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>195</v>
+      </c>
+      <c r="B93" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>196</v>
+      </c>
+      <c r="B94" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>197</v>
+      </c>
+      <c r="B95" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>197</v>
+      </c>
+      <c r="B96" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>198</v>
+      </c>
+      <c r="B97" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>199</v>
+      </c>
+      <c r="B98" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>200</v>
+      </c>
+      <c r="B99" t="s">
         <v>90</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>201</v>
+      </c>
+      <c r="B100" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>202</v>
+      </c>
+      <c r="B101" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>204</v>
+      </c>
+      <c r="B102" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>205</v>
+      </c>
+      <c r="B103" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>206</v>
+      </c>
+      <c r="B104" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>207</v>
+      </c>
+      <c r="B105" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>208</v>
+      </c>
+      <c r="B106" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>209</v>
+      </c>
+      <c r="B107" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>210</v>
+      </c>
+      <c r="B108" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>211</v>
+      </c>
+      <c r="B109" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>212</v>
+      </c>
+      <c r="B110" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>213</v>
+      </c>
+      <c r="B111" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>213</v>
+      </c>
+      <c r="B112" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>214</v>
+      </c>
+      <c r="B113" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>215</v>
+      </c>
+      <c r="B114" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>215</v>
+      </c>
+      <c r="B115" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>216</v>
+      </c>
+      <c r="B116" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>216</v>
+      </c>
+      <c r="B117" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>217</v>
+      </c>
+      <c r="B118" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>218</v>
+      </c>
+      <c r="B119" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>218</v>
+      </c>
+      <c r="B120" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>219</v>
+      </c>
+      <c r="B121" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>220</v>
+      </c>
+      <c r="B122" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>221</v>
+      </c>
+      <c r="B123" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>222</v>
+      </c>
+      <c r="B124" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>223</v>
+      </c>
+      <c r="B125" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>224</v>
+      </c>
+      <c r="B126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>225</v>
+      </c>
+      <c r="B127" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>226</v>
+      </c>
+      <c r="B128" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>227</v>
+      </c>
+      <c r="B129" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>228</v>
+      </c>
+      <c r="B130" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>229</v>
+      </c>
+      <c r="B131" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>230</v>
+      </c>
+      <c r="B132" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>231</v>
+      </c>
+      <c r="B133" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>232</v>
+      </c>
+      <c r="B134" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>232</v>
+      </c>
+      <c r="B135" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>233</v>
+      </c>
+      <c r="B136" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>234</v>
+      </c>
+      <c r="B137" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>235</v>
+      </c>
+      <c r="B138" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>236</v>
+      </c>
+      <c r="B139" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>236</v>
+      </c>
+      <c r="B140" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>237</v>
+      </c>
+      <c r="B141" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>238</v>
+      </c>
+      <c r="B142" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>238</v>
+      </c>
+      <c r="B143" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>239</v>
+      </c>
+      <c r="B144" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>240</v>
+      </c>
+      <c r="B145" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>241</v>
+      </c>
+      <c r="B146" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>242</v>
+      </c>
+      <c r="B147" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>242</v>
+      </c>
+      <c r="B148" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>243</v>
+      </c>
+      <c r="B149" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>243</v>
+      </c>
+      <c r="B150" t="s">
         <v>91</v>
       </c>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>244</v>
+      </c>
+      <c r="B151" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>245</v>
+      </c>
+      <c r="B152" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>246</v>
+      </c>
+      <c r="B153" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>247</v>
+      </c>
+      <c r="B154" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>247</v>
+      </c>
+      <c r="B155" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>248</v>
+      </c>
+      <c r="B156" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>249</v>
+      </c>
+      <c r="B157" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>250</v>
+      </c>
+      <c r="B158" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>251</v>
+      </c>
+      <c r="B159" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>252</v>
+      </c>
+      <c r="B160" t="s">
         <v>92</v>
       </c>
-      <c r="B4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>253</v>
+      </c>
+      <c r="B161" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>254</v>
+      </c>
+      <c r="B162" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>255</v>
+      </c>
+      <c r="B163" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>256</v>
+      </c>
+      <c r="B164" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>257</v>
+      </c>
+      <c r="B165" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>258</v>
+      </c>
+      <c r="B166" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>259</v>
+      </c>
+      <c r="B167" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>260</v>
+      </c>
+      <c r="B168" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>261</v>
+      </c>
+      <c r="B169" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>261</v>
+      </c>
+      <c r="B170" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>262</v>
+      </c>
+      <c r="B171" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>263</v>
+      </c>
+      <c r="B172" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>264</v>
+      </c>
+      <c r="B173" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>265</v>
+      </c>
+      <c r="B174" t="s">
         <v>88</v>
       </c>
-      <c r="D4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>265</v>
+      </c>
+      <c r="B175" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>266</v>
+      </c>
+      <c r="B176" t="s">
         <v>88</v>
       </c>
-      <c r="D5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>266</v>
+      </c>
+      <c r="B177" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>267</v>
+      </c>
+      <c r="B178" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>268</v>
+      </c>
+      <c r="B179" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>269</v>
+      </c>
+      <c r="B180" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>270</v>
+      </c>
+      <c r="B181" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>271</v>
+      </c>
+      <c r="B182" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>272</v>
+      </c>
+      <c r="B183" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>272</v>
+      </c>
+      <c r="B184" t="s">
         <v>94</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>272</v>
+      </c>
+      <c r="B185" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>273</v>
+      </c>
+      <c r="B186" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>274</v>
+      </c>
+      <c r="B187" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>275</v>
+      </c>
+      <c r="B188" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>276</v>
+      </c>
+      <c r="B189" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>277</v>
+      </c>
+      <c r="B190" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>278</v>
+      </c>
+      <c r="B191" t="s">
         <v>95</v>
       </c>
-      <c r="C6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>279</v>
+      </c>
+      <c r="B192" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>279</v>
+      </c>
+      <c r="B193" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>280</v>
+      </c>
+      <c r="B194" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>280</v>
+      </c>
+      <c r="B195" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>281</v>
+      </c>
+      <c r="B196" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>282</v>
+      </c>
+      <c r="B197" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>283</v>
+      </c>
+      <c r="B198" t="s">
         <v>88</v>
       </c>
-      <c r="D11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" t="s">
-        <v>112</v>
-      </c>
-      <c r="D14" t="s">
-        <v>50</v>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>284</v>
+      </c>
+      <c r="B199" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>285</v>
+      </c>
+      <c r="B200" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/FME_files/LOOKUP_TABLES/NonGeoLookupTables.xlsx
+++ b/FME_files/LOOKUP_TABLES/NonGeoLookupTables.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\fgp-metadata-proxy\FME_files\LOOKUP_TABLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87306B70-DAFC-432C-BB40-4B6FDA41B1B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCA38DD-B1D0-4C55-BD09-C44C5553D5B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="15140" windowHeight="9630" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2880" yWindow="860" windowWidth="28800" windowHeight="15470" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Format_TBS" sheetId="1" r:id="rId1"/>
     <sheet name="Update_TBS" sheetId="2" r:id="rId2"/>
     <sheet name="ResourceType_TBS" sheetId="3" r:id="rId3"/>
     <sheet name="Subject_TBS_ON" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="349">
   <si>
     <t>TBS_value</t>
   </si>
@@ -901,6 +902,189 @@
   </si>
   <si>
     <t>subject_value</t>
+  </si>
+  <si>
+    <t>datasets</t>
+  </si>
+  <si>
+    <t>private-school-contact-information</t>
+  </si>
+  <si>
+    <t>the-ontario-wildlife-damage-compensation-program-fair-market-value-valuation-table,the-ontario-wildlife-damage-compensation-program-fair-market-value-valuation-table,the-ontario-wildlife-damage-compensation-program-fair-market-value-valuation-table</t>
+  </si>
+  <si>
+    <t>opp-missing-persons-annual-report-data</t>
+  </si>
+  <si>
+    <t>ontario-public-library-statistics</t>
+  </si>
+  <si>
+    <t>ontario-guaranteed-annual-income-system-benefit-rates</t>
+  </si>
+  <si>
+    <t>wildlife-values-area,wildlife-values-site</t>
+  </si>
+  <si>
+    <t>registered-marriage-officiants,registered-marriage-officiants</t>
+  </si>
+  <si>
+    <t>carpool-lots</t>
+  </si>
+  <si>
+    <t>status-of-covid-19-cases-in-ontario-s-correctional-institutions</t>
+  </si>
+  <si>
+    <t>summary-of-cases-in-licensed-child-care-settings</t>
+  </si>
+  <si>
+    <t>ontario-lake-partner</t>
+  </si>
+  <si>
+    <t>covid-19-hospital-metrics-in-ontario-by-local-health-integration-network-lhin-regions,covid-19-assessment-centre-locations</t>
+  </si>
+  <si>
+    <t>status-of-covid-19-cases-in-ontario-s-correctional-institutions,status-of-covid-19-cases-in-ontario-s-correctional-institutions,covid-19-testing-of-inmates-in-ontario-s-correctional-institutions,ontario-s-correctional-institutions-locations,ontario-s-correctional-institutions-locations</t>
+  </si>
+  <si>
+    <t>fuels-price-survey-information</t>
+  </si>
+  <si>
+    <t>covid-19-assessment-centre-locations,effective-reproduction-number-re-for-covid-19-in-ontario</t>
+  </si>
+  <si>
+    <t>covid-19-assessment-centre-locations,covid-19-assessment-centre-locations</t>
+  </si>
+  <si>
+    <t>personal-income-tax-rates-and-credits</t>
+  </si>
+  <si>
+    <t>covid-19-assessment-centre-locations</t>
+  </si>
+  <si>
+    <t>summary-of-cases-in-schools,private-school-contact-information</t>
+  </si>
+  <si>
+    <t>ontario-energy-report-supporting-data</t>
+  </si>
+  <si>
+    <t>status-of-covid-19-cases-in-ontario-s-correctional-institutions,covid-19-testing-of-inmates-in-ontario-s-correctional-institutions,ontario-s-correctional-institutions-locations</t>
+  </si>
+  <si>
+    <t>recreational-fishing-regulations-data</t>
+  </si>
+  <si>
+    <t>lake-simcoe-monitoring,municipal-treated-wastewater-effluent</t>
+  </si>
+  <si>
+    <t>ontario-economic-accounts</t>
+  </si>
+  <si>
+    <t>covid-19-hospital-metrics-in-ontario-by-local-health-integration-network-lhin-regions</t>
+  </si>
+  <si>
+    <t>tobacco-tax-registrant-list,tax-credits-and-benefits-inflation-adjustment,raw-leaf-tobacco-registrant-list,beer-manufacturers-microbrewers-and-brands,fuel-and-gasoline-tax-registrant-list</t>
+  </si>
+  <si>
+    <t>personal-income-tax-rates-and-credits,personal-income-tax-rates-and-credits</t>
+  </si>
+  <si>
+    <t>ontario-builds-key-infrastructure-projects,safety-performance-functions,ministry-of-transportation-aggregate-sites</t>
+  </si>
+  <si>
+    <t>ontario-lake-partner,ontario-lake-partner</t>
+  </si>
+  <si>
+    <t>covid-19-testing-of-inmates-in-ontario-s-correctional-institutions</t>
+  </si>
+  <si>
+    <t>violent-crime-severity,weighted-clearance-rates,incident-based-crime-rates</t>
+  </si>
+  <si>
+    <t>registered-marriage-officiants</t>
+  </si>
+  <si>
+    <t>wildlife-values-site</t>
+  </si>
+  <si>
+    <t>wildlife-values-area</t>
+  </si>
+  <si>
+    <t>nursing-station-locations</t>
+  </si>
+  <si>
+    <t>watershed-primary,watershed-secondary,watershed-tertiary,quaternary-watershed-boundaries</t>
+  </si>
+  <si>
+    <t>ontario-health-premium-rates</t>
+  </si>
+  <si>
+    <t>well-records</t>
+  </si>
+  <si>
+    <t>summary-of-cases-in-schools,summary-of-cases-in-schools,private-school-contact-information,private-school-contact-information</t>
+  </si>
+  <si>
+    <t>private-school-contact-information,private-school-contact-information</t>
+  </si>
+  <si>
+    <t>ontario-tree-seed-transfer-policy-data</t>
+  </si>
+  <si>
+    <t>status-of-covid-19-cases-in-ontario-s-correctional-institutions,covid-19-testing-of-inmates-in-ontario-s-correctional-institutions</t>
+  </si>
+  <si>
+    <t>registered-marriage-officiants,registered-marriage-officiants,registered-marriage-officiants</t>
+  </si>
+  <si>
+    <t>status-of-covid-19-cases-in-ontario-s-correctional-institutions,status-of-covid-19-cases-in-ontario-s-correctional-institutions</t>
+  </si>
+  <si>
+    <t>the-ontario-wildlife-damage-compensation-program-fair-market-value-valuation-table</t>
+  </si>
+  <si>
+    <t>personal-income-tax-rates-and-credits,personal-income-tax-rates-and-credits,ontario-health-premium-rates</t>
+  </si>
+  <si>
+    <t>covid-19-testing-of-inmates-in-ontario-s-correctional-institutions,covid-19-testing-of-inmates-in-ontario-s-correctional-institutions</t>
+  </si>
+  <si>
+    <t>ontario-lake-partner,ontario-lake-partner,watershed-primary,watershed-secondary,watershed-tertiary,quaternary-watershed-boundaries</t>
+  </si>
+  <si>
+    <t>well-records,well-records</t>
+  </si>
+  <si>
+    <t>isotopic_tbs</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>farming</t>
+  </si>
+  <si>
+    <t>biota</t>
+  </si>
+  <si>
+    <t>society</t>
+  </si>
+  <si>
+    <t>economy</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>utilities_communication</t>
+  </si>
+  <si>
+    <t>inland_waters</t>
+  </si>
+  <si>
+    <t>planning_cadastre</t>
   </si>
 </sst>
 </file>
@@ -936,13 +1120,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -953,6 +1144,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4F670349-A87B-43BC-956D-7FC1EC8B65C9}" name="Table2" displayName="Table2" ref="A1:D168" totalsRowShown="0">
+  <autoFilter ref="A1:D168" xr:uid="{0B91C93C-A01F-4D04-998D-0D56D8BCF25D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D168">
+    <sortCondition ref="D1:D168"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{CEC72908-A340-4C39-A57B-615E9D466C25}" name="original_value"/>
+    <tableColumn id="2" xr3:uid="{434614F5-2869-4ACA-9487-B599EDBA6D3E}" name="isotopic_tbs"/>
+    <tableColumn id="3" xr3:uid="{650893D0-0804-43DC-94D9-15C78329CCA6}" name="datasets" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{CF90D596-AD17-47B3-ADCB-03D6F0FB8070}" name="Column1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2368,8 +2575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9DC00A4-140D-49DA-BDB7-780ECFA36618}">
   <dimension ref="A1:B200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3981,4 +4188,1845 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC33082E-D532-4ABD-8694-6D53DBF34F90}">
+  <dimension ref="A1:D168"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30.7265625" customWidth="1"/>
+    <col min="2" max="2" width="38.26953125" customWidth="1"/>
+    <col min="3" max="3" width="109.36328125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" t="s">
+        <v>341</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D12" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B13" t="s">
+        <v>343</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D13" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" t="s">
+        <v>343</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D14" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" t="s">
+        <v>343</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D15" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B16" t="s">
+        <v>342</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D16" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17" t="s">
+        <v>342</v>
+      </c>
+      <c r="D17" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" t="s">
+        <v>343</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D18" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>199</v>
+      </c>
+      <c r="B20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D20" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>220</v>
+      </c>
+      <c r="B21" t="s">
+        <v>346</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D21" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>228</v>
+      </c>
+      <c r="B22" t="s">
+        <v>342</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D22" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>231</v>
+      </c>
+      <c r="B23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D23" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>233</v>
+      </c>
+      <c r="B24" t="s">
+        <v>343</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D24" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>240</v>
+      </c>
+      <c r="B25" t="s">
+        <v>343</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D25" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>241</v>
+      </c>
+      <c r="B26" t="s">
+        <v>343</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D26" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>265</v>
+      </c>
+      <c r="B27" t="s">
+        <v>342</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D27" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>266</v>
+      </c>
+      <c r="B28" t="s">
+        <v>342</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D28" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>267</v>
+      </c>
+      <c r="B29" t="s">
+        <v>342</v>
+      </c>
+      <c r="D29" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>283</v>
+      </c>
+      <c r="B30" t="s">
+        <v>343</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D30" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" t="s">
+        <v>339</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" t="s">
+        <v>341</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>123</v>
+      </c>
+      <c r="B34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" t="s">
+        <v>342</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" t="s">
+        <v>340</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>128</v>
+      </c>
+      <c r="B37" t="s">
+        <v>343</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" t="s">
+        <v>341</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" t="s">
+        <v>341</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" t="s">
+        <v>342</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>134</v>
+      </c>
+      <c r="B42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>135</v>
+      </c>
+      <c r="B43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>136</v>
+      </c>
+      <c r="B44" t="s">
+        <v>342</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>137</v>
+      </c>
+      <c r="B45" t="s">
+        <v>342</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>138</v>
+      </c>
+      <c r="B46" t="s">
+        <v>342</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>139</v>
+      </c>
+      <c r="B47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>141</v>
+      </c>
+      <c r="B49" t="s">
+        <v>342</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>142</v>
+      </c>
+      <c r="B50" t="s">
+        <v>342</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>144</v>
+      </c>
+      <c r="B51" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>145</v>
+      </c>
+      <c r="B52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>146</v>
+      </c>
+      <c r="B53" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>147</v>
+      </c>
+      <c r="B54" t="s">
+        <v>343</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>148</v>
+      </c>
+      <c r="B55" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>149</v>
+      </c>
+      <c r="B56" t="s">
+        <v>342</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>150</v>
+      </c>
+      <c r="B57" t="s">
+        <v>340</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>151</v>
+      </c>
+      <c r="B58" t="s">
+        <v>341</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>152</v>
+      </c>
+      <c r="B59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>153</v>
+      </c>
+      <c r="B60" t="s">
+        <v>342</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>155</v>
+      </c>
+      <c r="B61" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>156</v>
+      </c>
+      <c r="B62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>157</v>
+      </c>
+      <c r="B63" t="s">
+        <v>342</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>158</v>
+      </c>
+      <c r="B64" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>159</v>
+      </c>
+      <c r="B65" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>160</v>
+      </c>
+      <c r="B66" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>161</v>
+      </c>
+      <c r="B67" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>162</v>
+      </c>
+      <c r="B68" t="s">
+        <v>342</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>163</v>
+      </c>
+      <c r="B69" t="s">
+        <v>342</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>164</v>
+      </c>
+      <c r="B70" t="s">
+        <v>342</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>165</v>
+      </c>
+      <c r="B71" t="s">
+        <v>342</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>166</v>
+      </c>
+      <c r="B72" t="s">
+        <v>124</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>167</v>
+      </c>
+      <c r="B73" t="s">
+        <v>346</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>89</v>
+      </c>
+      <c r="B74" t="s">
+        <v>89</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>173</v>
+      </c>
+      <c r="B75" t="s">
+        <v>342</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>174</v>
+      </c>
+      <c r="B76" t="s">
+        <v>342</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>175</v>
+      </c>
+      <c r="B77" t="s">
+        <v>343</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>176</v>
+      </c>
+      <c r="B78" t="s">
+        <v>341</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>177</v>
+      </c>
+      <c r="B79" t="s">
+        <v>341</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>179</v>
+      </c>
+      <c r="B80" t="s">
+        <v>343</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>183</v>
+      </c>
+      <c r="B81" t="s">
+        <v>341</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>184</v>
+      </c>
+      <c r="B82" t="s">
+        <v>342</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>186</v>
+      </c>
+      <c r="B83" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>188</v>
+      </c>
+      <c r="B84" t="s">
+        <v>343</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>189</v>
+      </c>
+      <c r="B86" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>190</v>
+      </c>
+      <c r="B87" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>191</v>
+      </c>
+      <c r="B88" t="s">
+        <v>86</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>192</v>
+      </c>
+      <c r="B89" t="s">
+        <v>86</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>193</v>
+      </c>
+      <c r="B90" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>194</v>
+      </c>
+      <c r="B91" t="s">
+        <v>342</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>195</v>
+      </c>
+      <c r="B92" t="s">
+        <v>343</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>197</v>
+      </c>
+      <c r="B93" t="s">
+        <v>343</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>200</v>
+      </c>
+      <c r="B94" t="s">
+        <v>347</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>201</v>
+      </c>
+      <c r="B95" t="s">
+        <v>342</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>202</v>
+      </c>
+      <c r="B96" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>204</v>
+      </c>
+      <c r="B97" t="s">
+        <v>124</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>205</v>
+      </c>
+      <c r="B98" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>206</v>
+      </c>
+      <c r="B99" t="s">
+        <v>347</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>207</v>
+      </c>
+      <c r="B100" t="s">
+        <v>347</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>208</v>
+      </c>
+      <c r="B101" t="s">
+        <v>340</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>209</v>
+      </c>
+      <c r="B102" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>210</v>
+      </c>
+      <c r="B103" t="s">
+        <v>340</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>211</v>
+      </c>
+      <c r="B104" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>212</v>
+      </c>
+      <c r="B105" t="s">
+        <v>342</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>213</v>
+      </c>
+      <c r="B106" t="s">
+        <v>342</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>214</v>
+      </c>
+      <c r="B107" t="s">
+        <v>343</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>215</v>
+      </c>
+      <c r="B108" t="s">
+        <v>342</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109" t="s">
+        <v>342</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>217</v>
+      </c>
+      <c r="B110" t="s">
+        <v>124</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>218</v>
+      </c>
+      <c r="B111" t="s">
+        <v>342</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>219</v>
+      </c>
+      <c r="B112" t="s">
+        <v>342</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>221</v>
+      </c>
+      <c r="B113" t="s">
+        <v>341</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>222</v>
+      </c>
+      <c r="B114" t="s">
+        <v>341</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>223</v>
+      </c>
+      <c r="B115" t="s">
+        <v>341</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>224</v>
+      </c>
+      <c r="B116" t="s">
+        <v>86</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>225</v>
+      </c>
+      <c r="B117" t="s">
+        <v>86</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>226</v>
+      </c>
+      <c r="B118" t="s">
+        <v>124</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>227</v>
+      </c>
+      <c r="B119" t="s">
+        <v>342</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>229</v>
+      </c>
+      <c r="B120" t="s">
+        <v>124</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>230</v>
+      </c>
+      <c r="B121" t="s">
+        <v>124</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>232</v>
+      </c>
+      <c r="B122" t="s">
+        <v>342</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>234</v>
+      </c>
+      <c r="B123" t="s">
+        <v>342</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>235</v>
+      </c>
+      <c r="B124" t="s">
+        <v>340</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>236</v>
+      </c>
+      <c r="B125" t="s">
+        <v>342</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>237</v>
+      </c>
+      <c r="B126" t="s">
+        <v>343</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>238</v>
+      </c>
+      <c r="B127" t="s">
+        <v>342</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>239</v>
+      </c>
+      <c r="B128" t="s">
+        <v>343</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>242</v>
+      </c>
+      <c r="B129" t="s">
+        <v>342</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>243</v>
+      </c>
+      <c r="B130" t="s">
+        <v>124</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>244</v>
+      </c>
+      <c r="B131" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>245</v>
+      </c>
+      <c r="B132" t="s">
+        <v>342</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>246</v>
+      </c>
+      <c r="B133" t="s">
+        <v>124</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>247</v>
+      </c>
+      <c r="B134" t="s">
+        <v>342</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>248</v>
+      </c>
+      <c r="B135" t="s">
+        <v>342</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>249</v>
+      </c>
+      <c r="B136" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>250</v>
+      </c>
+      <c r="B137" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>251</v>
+      </c>
+      <c r="B138" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>252</v>
+      </c>
+      <c r="B139" t="s">
+        <v>342</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>253</v>
+      </c>
+      <c r="B140" t="s">
+        <v>124</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>254</v>
+      </c>
+      <c r="B141" t="s">
+        <v>124</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>255</v>
+      </c>
+      <c r="B142" t="s">
+        <v>340</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>256</v>
+      </c>
+      <c r="B143" t="s">
+        <v>340</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>257</v>
+      </c>
+      <c r="B144" t="s">
+        <v>348</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>258</v>
+      </c>
+      <c r="B145" t="s">
+        <v>342</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>259</v>
+      </c>
+      <c r="B146" t="s">
+        <v>342</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>260</v>
+      </c>
+      <c r="B147" t="s">
+        <v>340</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>261</v>
+      </c>
+      <c r="B148" t="s">
+        <v>342</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>262</v>
+      </c>
+      <c r="B149" t="s">
+        <v>124</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>263</v>
+      </c>
+      <c r="B150" t="s">
+        <v>124</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>264</v>
+      </c>
+      <c r="B151" t="s">
+        <v>340</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>268</v>
+      </c>
+      <c r="B152" t="s">
+        <v>124</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>269</v>
+      </c>
+      <c r="B153" t="s">
+        <v>124</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>270</v>
+      </c>
+      <c r="B154" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>271</v>
+      </c>
+      <c r="B155" t="s">
+        <v>124</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>272</v>
+      </c>
+      <c r="B156" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>273</v>
+      </c>
+      <c r="B157" t="s">
+        <v>341</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>274</v>
+      </c>
+      <c r="B158" t="s">
+        <v>341</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>275</v>
+      </c>
+      <c r="B159" t="s">
+        <v>342</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>276</v>
+      </c>
+      <c r="B160" t="s">
+        <v>124</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>277</v>
+      </c>
+      <c r="B161" t="s">
+        <v>124</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>278</v>
+      </c>
+      <c r="B162" t="s">
+        <v>340</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>279</v>
+      </c>
+      <c r="B163" t="s">
+        <v>89</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>280</v>
+      </c>
+      <c r="B164" t="s">
+        <v>89</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>281</v>
+      </c>
+      <c r="B165" t="s">
+        <v>347</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>282</v>
+      </c>
+      <c r="B166" t="s">
+        <v>342</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>284</v>
+      </c>
+      <c r="B167" t="s">
+        <v>341</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>285</v>
+      </c>
+      <c r="B168" t="s">
+        <v>341</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/FME_files/LOOKUP_TABLES/NonGeoLookupTables.xlsx
+++ b/FME_files/LOOKUP_TABLES/NonGeoLookupTables.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\fgp-metadata-proxy\FME_files\LOOKUP_TABLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCA38DD-B1D0-4C55-BD09-C44C5553D5B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="860" windowWidth="28800" windowHeight="15470" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2880" yWindow="870" windowWidth="28800" windowHeight="15465" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Format_TBS" sheetId="1" r:id="rId1"/>
     <sheet name="Update_TBS" sheetId="2" r:id="rId2"/>
     <sheet name="ResourceType_TBS" sheetId="3" r:id="rId3"/>
     <sheet name="Subject_TBS_ON" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="8" r:id="rId5"/>
+    <sheet name="Isotopic_TBS_ON" sheetId="8" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="305">
   <si>
     <t>TBS_value</t>
   </si>
@@ -904,156 +903,6 @@
     <t>subject_value</t>
   </si>
   <si>
-    <t>datasets</t>
-  </si>
-  <si>
-    <t>private-school-contact-information</t>
-  </si>
-  <si>
-    <t>the-ontario-wildlife-damage-compensation-program-fair-market-value-valuation-table,the-ontario-wildlife-damage-compensation-program-fair-market-value-valuation-table,the-ontario-wildlife-damage-compensation-program-fair-market-value-valuation-table</t>
-  </si>
-  <si>
-    <t>opp-missing-persons-annual-report-data</t>
-  </si>
-  <si>
-    <t>ontario-public-library-statistics</t>
-  </si>
-  <si>
-    <t>ontario-guaranteed-annual-income-system-benefit-rates</t>
-  </si>
-  <si>
-    <t>wildlife-values-area,wildlife-values-site</t>
-  </si>
-  <si>
-    <t>registered-marriage-officiants,registered-marriage-officiants</t>
-  </si>
-  <si>
-    <t>carpool-lots</t>
-  </si>
-  <si>
-    <t>status-of-covid-19-cases-in-ontario-s-correctional-institutions</t>
-  </si>
-  <si>
-    <t>summary-of-cases-in-licensed-child-care-settings</t>
-  </si>
-  <si>
-    <t>ontario-lake-partner</t>
-  </si>
-  <si>
-    <t>covid-19-hospital-metrics-in-ontario-by-local-health-integration-network-lhin-regions,covid-19-assessment-centre-locations</t>
-  </si>
-  <si>
-    <t>status-of-covid-19-cases-in-ontario-s-correctional-institutions,status-of-covid-19-cases-in-ontario-s-correctional-institutions,covid-19-testing-of-inmates-in-ontario-s-correctional-institutions,ontario-s-correctional-institutions-locations,ontario-s-correctional-institutions-locations</t>
-  </si>
-  <si>
-    <t>fuels-price-survey-information</t>
-  </si>
-  <si>
-    <t>covid-19-assessment-centre-locations,effective-reproduction-number-re-for-covid-19-in-ontario</t>
-  </si>
-  <si>
-    <t>covid-19-assessment-centre-locations,covid-19-assessment-centre-locations</t>
-  </si>
-  <si>
-    <t>personal-income-tax-rates-and-credits</t>
-  </si>
-  <si>
-    <t>covid-19-assessment-centre-locations</t>
-  </si>
-  <si>
-    <t>summary-of-cases-in-schools,private-school-contact-information</t>
-  </si>
-  <si>
-    <t>ontario-energy-report-supporting-data</t>
-  </si>
-  <si>
-    <t>status-of-covid-19-cases-in-ontario-s-correctional-institutions,covid-19-testing-of-inmates-in-ontario-s-correctional-institutions,ontario-s-correctional-institutions-locations</t>
-  </si>
-  <si>
-    <t>recreational-fishing-regulations-data</t>
-  </si>
-  <si>
-    <t>lake-simcoe-monitoring,municipal-treated-wastewater-effluent</t>
-  </si>
-  <si>
-    <t>ontario-economic-accounts</t>
-  </si>
-  <si>
-    <t>covid-19-hospital-metrics-in-ontario-by-local-health-integration-network-lhin-regions</t>
-  </si>
-  <si>
-    <t>tobacco-tax-registrant-list,tax-credits-and-benefits-inflation-adjustment,raw-leaf-tobacco-registrant-list,beer-manufacturers-microbrewers-and-brands,fuel-and-gasoline-tax-registrant-list</t>
-  </si>
-  <si>
-    <t>personal-income-tax-rates-and-credits,personal-income-tax-rates-and-credits</t>
-  </si>
-  <si>
-    <t>ontario-builds-key-infrastructure-projects,safety-performance-functions,ministry-of-transportation-aggregate-sites</t>
-  </si>
-  <si>
-    <t>ontario-lake-partner,ontario-lake-partner</t>
-  </si>
-  <si>
-    <t>covid-19-testing-of-inmates-in-ontario-s-correctional-institutions</t>
-  </si>
-  <si>
-    <t>violent-crime-severity,weighted-clearance-rates,incident-based-crime-rates</t>
-  </si>
-  <si>
-    <t>registered-marriage-officiants</t>
-  </si>
-  <si>
-    <t>wildlife-values-site</t>
-  </si>
-  <si>
-    <t>wildlife-values-area</t>
-  </si>
-  <si>
-    <t>nursing-station-locations</t>
-  </si>
-  <si>
-    <t>watershed-primary,watershed-secondary,watershed-tertiary,quaternary-watershed-boundaries</t>
-  </si>
-  <si>
-    <t>ontario-health-premium-rates</t>
-  </si>
-  <si>
-    <t>well-records</t>
-  </si>
-  <si>
-    <t>summary-of-cases-in-schools,summary-of-cases-in-schools,private-school-contact-information,private-school-contact-information</t>
-  </si>
-  <si>
-    <t>private-school-contact-information,private-school-contact-information</t>
-  </si>
-  <si>
-    <t>ontario-tree-seed-transfer-policy-data</t>
-  </si>
-  <si>
-    <t>status-of-covid-19-cases-in-ontario-s-correctional-institutions,covid-19-testing-of-inmates-in-ontario-s-correctional-institutions</t>
-  </si>
-  <si>
-    <t>registered-marriage-officiants,registered-marriage-officiants,registered-marriage-officiants</t>
-  </si>
-  <si>
-    <t>status-of-covid-19-cases-in-ontario-s-correctional-institutions,status-of-covid-19-cases-in-ontario-s-correctional-institutions</t>
-  </si>
-  <si>
-    <t>the-ontario-wildlife-damage-compensation-program-fair-market-value-valuation-table</t>
-  </si>
-  <si>
-    <t>personal-income-tax-rates-and-credits,personal-income-tax-rates-and-credits,ontario-health-premium-rates</t>
-  </si>
-  <si>
-    <t>covid-19-testing-of-inmates-in-ontario-s-correctional-institutions,covid-19-testing-of-inmates-in-ontario-s-correctional-institutions</t>
-  </si>
-  <si>
-    <t>ontario-lake-partner,ontario-lake-partner,watershed-primary,watershed-secondary,watershed-tertiary,quaternary-watershed-boundaries</t>
-  </si>
-  <si>
-    <t>well-records,well-records</t>
-  </si>
-  <si>
     <t>isotopic_tbs</t>
   </si>
   <si>
@@ -1072,12 +921,6 @@
     <t>economy</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t>utilities_communication</t>
   </si>
   <si>
@@ -1085,12 +928,36 @@
   </si>
   <si>
     <t>planning_cadastre</t>
+  </si>
+  <si>
+    <t>structure</t>
+  </si>
+  <si>
+    <t>geoscientific_information</t>
+  </si>
+  <si>
+    <t>isotopic_hnap</t>
+  </si>
+  <si>
+    <t>geoscientificInformation</t>
+  </si>
+  <si>
+    <t>inlandWaters</t>
+  </si>
+  <si>
+    <t>planningCadastre</t>
+  </si>
+  <si>
+    <t>utilitiesCommunication</t>
+  </si>
+  <si>
+    <t>_default_tag_value_</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1120,20 +987,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1144,22 +1004,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4F670349-A87B-43BC-956D-7FC1EC8B65C9}" name="Table2" displayName="Table2" ref="A1:D168" totalsRowShown="0">
-  <autoFilter ref="A1:D168" xr:uid="{0B91C93C-A01F-4D04-998D-0D56D8BCF25D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D168">
-    <sortCondition ref="D1:D168"/>
-  </sortState>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{CEC72908-A340-4C39-A57B-615E9D466C25}" name="original_value"/>
-    <tableColumn id="2" xr3:uid="{434614F5-2869-4ACA-9487-B599EDBA6D3E}" name="isotopic_tbs"/>
-    <tableColumn id="3" xr3:uid="{650893D0-0804-43DC-94D9-15C78329CCA6}" name="datasets" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{CF90D596-AD17-47B3-ADCB-03D6F0FB8070}" name="Column1"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1424,21 +1268,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -1449,7 +1293,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1460,7 +1304,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1471,7 +1315,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1482,7 +1326,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1493,7 +1337,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1504,7 +1348,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1515,7 +1359,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1526,7 +1370,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1537,7 +1381,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1548,7 +1392,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1559,7 +1403,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1570,7 +1414,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1581,7 +1425,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1592,7 +1436,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1603,7 +1447,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1614,7 +1458,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1625,7 +1469,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1636,7 +1480,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1647,7 +1491,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1658,7 +1502,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1669,7 +1513,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1680,7 +1524,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1691,7 +1535,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1702,7 +1546,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1713,7 +1557,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1724,7 +1568,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1735,7 +1579,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1746,7 +1590,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1757,7 +1601,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1768,7 +1612,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1779,7 +1623,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -1790,7 +1634,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -1801,7 +1645,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -1812,7 +1656,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1823,7 +1667,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1834,7 +1678,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1845,7 +1689,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -1856,7 +1700,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -1867,7 +1711,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -1878,7 +1722,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -1889,7 +1733,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -1900,7 +1744,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -1911,7 +1755,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -1922,7 +1766,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -1933,7 +1777,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -1944,7 +1788,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>2</v>
       </c>
@@ -1955,7 +1799,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>104</v>
       </c>
@@ -1966,7 +1810,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>105</v>
       </c>
@@ -1977,7 +1821,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>106</v>
       </c>
@@ -1988,7 +1832,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>107</v>
       </c>
@@ -1999,7 +1843,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>108</v>
       </c>
@@ -2010,7 +1854,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>109</v>
       </c>
@@ -2021,7 +1865,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>110</v>
       </c>
@@ -2032,7 +1876,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>111</v>
       </c>
@@ -2043,7 +1887,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>112</v>
       </c>
@@ -2054,7 +1898,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -2065,7 +1909,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>114</v>
       </c>
@@ -2082,20 +1926,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{589F8EF7-A369-418C-AD91-10E8DD305FDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.453125" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -2106,7 +1950,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -2117,7 +1961,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -2128,7 +1972,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -2139,7 +1983,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -2150,7 +1994,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -2161,7 +2005,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -2172,7 +2016,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -2183,7 +2027,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -2194,7 +2038,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -2205,7 +2049,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -2216,7 +2060,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -2227,7 +2071,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -2238,7 +2082,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -2249,7 +2093,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -2260,7 +2104,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -2271,7 +2115,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -2282,7 +2126,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -2293,7 +2137,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -2304,7 +2148,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -2315,7 +2159,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>97</v>
       </c>
@@ -2326,7 +2170,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>98</v>
       </c>
@@ -2337,7 +2181,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -2348,7 +2192,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>99</v>
       </c>
@@ -2359,7 +2203,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>100</v>
       </c>
@@ -2370,7 +2214,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>101</v>
       </c>
@@ -2381,7 +2225,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -2392,7 +2236,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>102</v>
       </c>
@@ -2403,7 +2247,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>103</v>
       </c>
@@ -2420,21 +2264,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0DA827-7F8F-427A-89AE-B21D8717466C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.54296875" customWidth="1"/>
-    <col min="2" max="2" width="14.90625" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -2445,7 +2289,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -2456,7 +2300,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -2467,7 +2311,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -2478,7 +2322,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -2489,7 +2333,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -2500,7 +2344,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -2511,7 +2355,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -2522,7 +2366,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -2533,7 +2377,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>117</v>
       </c>
@@ -2544,7 +2388,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -2555,7 +2399,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>119</v>
       </c>
@@ -2572,20 +2416,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9DC00A4-140D-49DA-BDB7-780ECFA36618}">
-  <dimension ref="A1:B200"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="A198" sqref="A198"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.08984375" customWidth="1"/>
-    <col min="2" max="2" width="24.90625" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>286</v>
       </c>
@@ -2593,7 +2437,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -2601,7 +2445,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -2609,7 +2453,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>122</v>
       </c>
@@ -2617,7 +2461,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>123</v>
       </c>
@@ -2625,7 +2469,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>125</v>
       </c>
@@ -2633,7 +2477,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -2641,7 +2485,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>127</v>
       </c>
@@ -2649,7 +2493,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>128</v>
       </c>
@@ -2657,7 +2501,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>129</v>
       </c>
@@ -2665,7 +2509,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>130</v>
       </c>
@@ -2673,7 +2517,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>131</v>
       </c>
@@ -2681,7 +2525,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>132</v>
       </c>
@@ -2689,7 +2533,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>132</v>
       </c>
@@ -2697,7 +2541,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>134</v>
       </c>
@@ -2705,7 +2549,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>135</v>
       </c>
@@ -2713,7 +2557,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>136</v>
       </c>
@@ -2721,7 +2565,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>137</v>
       </c>
@@ -2729,7 +2573,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>138</v>
       </c>
@@ -2737,7 +2581,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>138</v>
       </c>
@@ -2745,7 +2589,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>139</v>
       </c>
@@ -2753,7 +2597,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>140</v>
       </c>
@@ -2761,7 +2605,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>141</v>
       </c>
@@ -2769,7 +2613,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>142</v>
       </c>
@@ -2777,7 +2621,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>143</v>
       </c>
@@ -2785,7 +2629,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>144</v>
       </c>
@@ -2793,7 +2637,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>145</v>
       </c>
@@ -2801,7 +2645,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>146</v>
       </c>
@@ -2809,7 +2653,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>147</v>
       </c>
@@ -2817,7 +2661,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>147</v>
       </c>
@@ -2825,7 +2669,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>148</v>
       </c>
@@ -2833,7 +2677,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>148</v>
       </c>
@@ -2841,7 +2685,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>149</v>
       </c>
@@ -2849,7 +2693,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>149</v>
       </c>
@@ -2857,7 +2701,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>150</v>
       </c>
@@ -2865,7 +2709,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>151</v>
       </c>
@@ -2873,7 +2717,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>152</v>
       </c>
@@ -2881,7 +2725,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>153</v>
       </c>
@@ -2889,7 +2733,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>154</v>
       </c>
@@ -2897,7 +2741,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>155</v>
       </c>
@@ -2905,7 +2749,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>156</v>
       </c>
@@ -2913,7 +2757,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>157</v>
       </c>
@@ -2921,7 +2765,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>158</v>
       </c>
@@ -2929,7 +2773,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>159</v>
       </c>
@@ -2937,7 +2781,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>160</v>
       </c>
@@ -2945,7 +2789,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>161</v>
       </c>
@@ -2953,7 +2797,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>162</v>
       </c>
@@ -2961,7 +2805,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>163</v>
       </c>
@@ -2969,7 +2813,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>164</v>
       </c>
@@ -2977,7 +2821,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>165</v>
       </c>
@@ -2985,7 +2829,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>166</v>
       </c>
@@ -2993,7 +2837,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>167</v>
       </c>
@@ -3001,7 +2845,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>89</v>
       </c>
@@ -3009,7 +2853,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>168</v>
       </c>
@@ -3017,7 +2861,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>168</v>
       </c>
@@ -3025,7 +2869,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>168</v>
       </c>
@@ -3033,7 +2877,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>170</v>
       </c>
@@ -3041,7 +2885,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>170</v>
       </c>
@@ -3049,7 +2893,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>170</v>
       </c>
@@ -3057,7 +2901,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>171</v>
       </c>
@@ -3065,7 +2909,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>171</v>
       </c>
@@ -3073,7 +2917,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>171</v>
       </c>
@@ -3081,7 +2925,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>172</v>
       </c>
@@ -3089,7 +2933,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>172</v>
       </c>
@@ -3097,7 +2941,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>172</v>
       </c>
@@ -3105,7 +2949,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>173</v>
       </c>
@@ -3113,7 +2957,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>174</v>
       </c>
@@ -3121,7 +2965,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>175</v>
       </c>
@@ -3129,7 +2973,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>176</v>
       </c>
@@ -3137,7 +2981,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>177</v>
       </c>
@@ -3145,7 +2989,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>178</v>
       </c>
@@ -3153,7 +2997,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>179</v>
       </c>
@@ -3161,7 +3005,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>180</v>
       </c>
@@ -3169,7 +3013,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>181</v>
       </c>
@@ -3177,7 +3021,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>182</v>
       </c>
@@ -3185,7 +3029,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>183</v>
       </c>
@@ -3193,7 +3037,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>184</v>
       </c>
@@ -3201,7 +3045,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>185</v>
       </c>
@@ -3209,7 +3053,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>185</v>
       </c>
@@ -3217,7 +3061,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>186</v>
       </c>
@@ -3225,7 +3069,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>187</v>
       </c>
@@ -3233,7 +3077,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>187</v>
       </c>
@@ -3241,7 +3085,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>188</v>
       </c>
@@ -3249,7 +3093,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -3257,7 +3101,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>189</v>
       </c>
@@ -3265,7 +3109,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>190</v>
       </c>
@@ -3273,7 +3117,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>191</v>
       </c>
@@ -3281,7 +3125,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>192</v>
       </c>
@@ -3289,7 +3133,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>193</v>
       </c>
@@ -3297,7 +3141,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>194</v>
       </c>
@@ -3305,7 +3149,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>194</v>
       </c>
@@ -3313,7 +3157,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>195</v>
       </c>
@@ -3321,7 +3165,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>195</v>
       </c>
@@ -3329,7 +3173,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>196</v>
       </c>
@@ -3337,7 +3181,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>197</v>
       </c>
@@ -3345,7 +3189,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>197</v>
       </c>
@@ -3353,7 +3197,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>198</v>
       </c>
@@ -3361,7 +3205,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>199</v>
       </c>
@@ -3369,7 +3213,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>200</v>
       </c>
@@ -3377,7 +3221,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>201</v>
       </c>
@@ -3385,7 +3229,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>202</v>
       </c>
@@ -3393,7 +3237,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>204</v>
       </c>
@@ -3401,7 +3245,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>205</v>
       </c>
@@ -3409,7 +3253,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>206</v>
       </c>
@@ -3417,7 +3261,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>207</v>
       </c>
@@ -3425,7 +3269,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>208</v>
       </c>
@@ -3433,7 +3277,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>209</v>
       </c>
@@ -3441,7 +3285,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>210</v>
       </c>
@@ -3449,7 +3293,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>211</v>
       </c>
@@ -3457,7 +3301,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>212</v>
       </c>
@@ -3465,7 +3309,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>213</v>
       </c>
@@ -3473,7 +3317,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>213</v>
       </c>
@@ -3481,7 +3325,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>214</v>
       </c>
@@ -3489,7 +3333,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>215</v>
       </c>
@@ -3497,7 +3341,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>215</v>
       </c>
@@ -3505,7 +3349,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>216</v>
       </c>
@@ -3513,7 +3357,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>216</v>
       </c>
@@ -3521,7 +3365,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>217</v>
       </c>
@@ -3529,7 +3373,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>218</v>
       </c>
@@ -3537,7 +3381,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>218</v>
       </c>
@@ -3545,7 +3389,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>219</v>
       </c>
@@ -3553,7 +3397,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>220</v>
       </c>
@@ -3561,7 +3405,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>221</v>
       </c>
@@ -3569,7 +3413,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>222</v>
       </c>
@@ -3577,7 +3421,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>223</v>
       </c>
@@ -3585,7 +3429,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>224</v>
       </c>
@@ -3593,7 +3437,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>225</v>
       </c>
@@ -3601,7 +3445,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>226</v>
       </c>
@@ -3609,7 +3453,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>227</v>
       </c>
@@ -3617,7 +3461,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>228</v>
       </c>
@@ -3625,7 +3469,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>229</v>
       </c>
@@ -3633,7 +3477,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>230</v>
       </c>
@@ -3641,7 +3485,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>231</v>
       </c>
@@ -3649,7 +3493,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>232</v>
       </c>
@@ -3657,7 +3501,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>232</v>
       </c>
@@ -3665,7 +3509,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>233</v>
       </c>
@@ -3673,7 +3517,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>234</v>
       </c>
@@ -3681,7 +3525,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>235</v>
       </c>
@@ -3689,7 +3533,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>236</v>
       </c>
@@ -3697,7 +3541,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>236</v>
       </c>
@@ -3705,7 +3549,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>237</v>
       </c>
@@ -3713,7 +3557,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>238</v>
       </c>
@@ -3721,7 +3565,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>238</v>
       </c>
@@ -3729,7 +3573,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>239</v>
       </c>
@@ -3737,7 +3581,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>240</v>
       </c>
@@ -3745,7 +3589,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>241</v>
       </c>
@@ -3753,7 +3597,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>242</v>
       </c>
@@ -3761,7 +3605,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>242</v>
       </c>
@@ -3769,7 +3613,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>243</v>
       </c>
@@ -3777,7 +3621,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>243</v>
       </c>
@@ -3785,7 +3629,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>244</v>
       </c>
@@ -3793,7 +3637,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>245</v>
       </c>
@@ -3801,7 +3645,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>246</v>
       </c>
@@ -3809,7 +3653,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>247</v>
       </c>
@@ -3817,7 +3661,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>247</v>
       </c>
@@ -3825,7 +3669,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>248</v>
       </c>
@@ -3833,7 +3677,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>249</v>
       </c>
@@ -3841,7 +3685,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>250</v>
       </c>
@@ -3849,7 +3693,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>251</v>
       </c>
@@ -3857,7 +3701,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>252</v>
       </c>
@@ -3865,7 +3709,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>253</v>
       </c>
@@ -3873,7 +3717,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>254</v>
       </c>
@@ -3881,7 +3725,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>255</v>
       </c>
@@ -3889,7 +3733,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>256</v>
       </c>
@@ -3897,7 +3741,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>257</v>
       </c>
@@ -3905,7 +3749,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>258</v>
       </c>
@@ -3913,7 +3757,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>259</v>
       </c>
@@ -3921,7 +3765,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>260</v>
       </c>
@@ -3929,7 +3773,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>261</v>
       </c>
@@ -3937,7 +3781,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>261</v>
       </c>
@@ -3945,7 +3789,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>262</v>
       </c>
@@ -3953,7 +3797,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>263</v>
       </c>
@@ -3961,7 +3805,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>264</v>
       </c>
@@ -3969,7 +3813,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>265</v>
       </c>
@@ -3977,7 +3821,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>265</v>
       </c>
@@ -3985,7 +3829,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>266</v>
       </c>
@@ -3993,7 +3837,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>266</v>
       </c>
@@ -4001,7 +3845,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>267</v>
       </c>
@@ -4009,7 +3853,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>268</v>
       </c>
@@ -4017,7 +3861,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>269</v>
       </c>
@@ -4025,7 +3869,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>270</v>
       </c>
@@ -4033,7 +3877,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>271</v>
       </c>
@@ -4041,7 +3885,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>272</v>
       </c>
@@ -4049,7 +3893,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>272</v>
       </c>
@@ -4057,7 +3901,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>272</v>
       </c>
@@ -4065,7 +3909,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>273</v>
       </c>
@@ -4073,7 +3917,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>274</v>
       </c>
@@ -4081,7 +3925,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>275</v>
       </c>
@@ -4089,7 +3933,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>276</v>
       </c>
@@ -4097,7 +3941,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>277</v>
       </c>
@@ -4105,7 +3949,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>278</v>
       </c>
@@ -4113,7 +3957,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>279</v>
       </c>
@@ -4121,7 +3965,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>279</v>
       </c>
@@ -4129,7 +3973,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>280</v>
       </c>
@@ -4137,7 +3981,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>280</v>
       </c>
@@ -4145,7 +3989,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>281</v>
       </c>
@@ -4153,7 +3997,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>282</v>
       </c>
@@ -4161,7 +4005,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>283</v>
       </c>
@@ -4169,7 +4013,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>284</v>
       </c>
@@ -4177,12 +4021,20 @@
         <v>90</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>285</v>
       </c>
       <c r="B200" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>304</v>
+      </c>
+      <c r="B201" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -4191,1842 +4043,2122 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC33082E-D532-4ABD-8694-6D53DBF34F90}">
-  <dimension ref="A1:D168"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="A191" sqref="A191"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7265625" customWidth="1"/>
-    <col min="2" max="2" width="38.26953125" customWidth="1"/>
-    <col min="3" max="3" width="109.36328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>286</v>
       </c>
       <c r="B1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" t="s">
+        <v>291</v>
+      </c>
+      <c r="C9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C11" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B12" t="s">
+        <v>291</v>
+      </c>
+      <c r="C12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>273</v>
+      </c>
+      <c r="B13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C13" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>274</v>
+      </c>
+      <c r="B14" t="s">
+        <v>291</v>
+      </c>
+      <c r="C14" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>284</v>
+      </c>
+      <c r="B15" t="s">
+        <v>291</v>
+      </c>
+      <c r="C15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>285</v>
+      </c>
+      <c r="B16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>143</v>
       </c>
-      <c r="B2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B4" t="s">
-        <v>346</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" t="s">
-        <v>343</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B6" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B17" t="s">
+        <v>293</v>
+      </c>
+      <c r="C17" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>170</v>
       </c>
-      <c r="B8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B9" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>171</v>
-      </c>
-      <c r="B10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="B18" t="s">
+        <v>293</v>
+      </c>
+      <c r="C18" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>172</v>
       </c>
-      <c r="B11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="B19" t="s">
+        <v>293</v>
+      </c>
+      <c r="C19" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>178</v>
       </c>
-      <c r="B12" t="s">
-        <v>341</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D12" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="B20" t="s">
+        <v>293</v>
+      </c>
+      <c r="C20" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>180</v>
       </c>
-      <c r="B13" t="s">
-        <v>343</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D13" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="B21" t="s">
+        <v>293</v>
+      </c>
+      <c r="C21" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>181</v>
       </c>
-      <c r="B14" t="s">
-        <v>343</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D14" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="B22" t="s">
+        <v>293</v>
+      </c>
+      <c r="C22" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>182</v>
       </c>
-      <c r="B15" t="s">
-        <v>343</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D15" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>185</v>
-      </c>
-      <c r="B16" t="s">
-        <v>342</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D16" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>187</v>
-      </c>
-      <c r="B17" t="s">
-        <v>342</v>
-      </c>
-      <c r="D17" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>196</v>
-      </c>
-      <c r="B18" t="s">
-        <v>343</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D18" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>198</v>
-      </c>
-      <c r="B19" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>199</v>
-      </c>
-      <c r="B20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D20" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>220</v>
-      </c>
-      <c r="B21" t="s">
-        <v>346</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D21" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>228</v>
-      </c>
-      <c r="B22" t="s">
-        <v>342</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D22" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>231</v>
-      </c>
       <c r="B23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D23" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+        <v>293</v>
+      </c>
+      <c r="C23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>233</v>
       </c>
       <c r="B24" t="s">
-        <v>343</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D24" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+        <v>293</v>
+      </c>
+      <c r="C24" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>240</v>
       </c>
       <c r="B25" t="s">
-        <v>343</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D25" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+        <v>293</v>
+      </c>
+      <c r="C25" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>241</v>
       </c>
       <c r="B26" t="s">
-        <v>343</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D26" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+        <v>293</v>
+      </c>
+      <c r="C26" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="B27" t="s">
-        <v>342</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D27" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+        <v>293</v>
+      </c>
+      <c r="C27" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>266</v>
       </c>
       <c r="B28" t="s">
-        <v>342</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="D28" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+        <v>293</v>
+      </c>
+      <c r="C28" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>196</v>
+      </c>
+      <c r="B29" t="s">
+        <v>293</v>
+      </c>
+      <c r="C29" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>267</v>
       </c>
-      <c r="B29" t="s">
-        <v>342</v>
-      </c>
-      <c r="D29" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
+        <v>293</v>
+      </c>
+      <c r="C30" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" t="s">
+        <v>293</v>
+      </c>
+      <c r="C31" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" t="s">
+        <v>293</v>
+      </c>
+      <c r="C32" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" t="s">
+        <v>293</v>
+      </c>
+      <c r="C33" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>154</v>
+      </c>
+      <c r="B34" t="s">
+        <v>293</v>
+      </c>
+      <c r="C34" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>158</v>
+      </c>
+      <c r="B35" t="s">
+        <v>293</v>
+      </c>
+      <c r="C35" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>159</v>
+      </c>
+      <c r="B36" t="s">
+        <v>293</v>
+      </c>
+      <c r="C36" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>175</v>
+      </c>
+      <c r="B37" t="s">
+        <v>293</v>
+      </c>
+      <c r="C37" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>179</v>
+      </c>
+      <c r="B38" t="s">
+        <v>293</v>
+      </c>
+      <c r="C38" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>185</v>
+      </c>
+      <c r="B39" t="s">
+        <v>293</v>
+      </c>
+      <c r="C39" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>187</v>
+      </c>
+      <c r="B40" t="s">
+        <v>293</v>
+      </c>
+      <c r="C40" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>188</v>
+      </c>
+      <c r="B41" t="s">
+        <v>293</v>
+      </c>
+      <c r="C41" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>195</v>
+      </c>
+      <c r="B42" t="s">
+        <v>293</v>
+      </c>
+      <c r="C42" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>197</v>
+      </c>
+      <c r="B43" t="s">
+        <v>293</v>
+      </c>
+      <c r="C43" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>202</v>
+      </c>
+      <c r="B44" t="s">
+        <v>293</v>
+      </c>
+      <c r="C44" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>214</v>
+      </c>
+      <c r="B45" t="s">
+        <v>293</v>
+      </c>
+      <c r="C45" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>237</v>
+      </c>
+      <c r="B46" t="s">
+        <v>293</v>
+      </c>
+      <c r="C46" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>239</v>
+      </c>
+      <c r="B47" t="s">
+        <v>293</v>
+      </c>
+      <c r="C47" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>270</v>
+      </c>
+      <c r="B48" t="s">
+        <v>293</v>
+      </c>
+      <c r="C48" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>170</v>
+      </c>
+      <c r="B49" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>172</v>
+      </c>
+      <c r="B50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>178</v>
+      </c>
+      <c r="B51" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>180</v>
+      </c>
+      <c r="B52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>168</v>
+      </c>
+      <c r="B54" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>171</v>
+      </c>
+      <c r="B55" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>279</v>
+      </c>
+      <c r="B56" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>280</v>
+      </c>
+      <c r="B57" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" t="s">
+        <v>290</v>
+      </c>
+      <c r="C58" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" t="s">
+        <v>290</v>
+      </c>
+      <c r="C59" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>150</v>
+      </c>
+      <c r="B60" t="s">
+        <v>290</v>
+      </c>
+      <c r="C60" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>208</v>
+      </c>
+      <c r="B61" t="s">
+        <v>290</v>
+      </c>
+      <c r="C61" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>210</v>
+      </c>
+      <c r="B62" t="s">
+        <v>290</v>
+      </c>
+      <c r="C62" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>235</v>
+      </c>
+      <c r="B63" t="s">
+        <v>290</v>
+      </c>
+      <c r="C63" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>255</v>
+      </c>
+      <c r="B64" t="s">
+        <v>290</v>
+      </c>
+      <c r="C64" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>256</v>
+      </c>
+      <c r="B65" t="s">
+        <v>290</v>
+      </c>
+      <c r="C65" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>260</v>
+      </c>
+      <c r="B66" t="s">
+        <v>290</v>
+      </c>
+      <c r="C66" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>264</v>
+      </c>
+      <c r="B67" t="s">
+        <v>290</v>
+      </c>
+      <c r="C67" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>278</v>
+      </c>
+      <c r="B68" t="s">
+        <v>290</v>
+      </c>
+      <c r="C68" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>220</v>
+      </c>
+      <c r="B69" t="s">
+        <v>298</v>
+      </c>
+      <c r="C69" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>241</v>
+      </c>
+      <c r="B70" t="s">
+        <v>298</v>
+      </c>
+      <c r="C70" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>283</v>
       </c>
-      <c r="B30" t="s">
-        <v>343</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D30" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>120</v>
-      </c>
-      <c r="B31" t="s">
-        <v>339</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>121</v>
-      </c>
-      <c r="B32" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>122</v>
-      </c>
-      <c r="B33" t="s">
-        <v>341</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>123</v>
-      </c>
-      <c r="B34" t="s">
-        <v>124</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>125</v>
-      </c>
-      <c r="B35" t="s">
-        <v>342</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>127</v>
-      </c>
-      <c r="B36" t="s">
-        <v>340</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>128</v>
-      </c>
-      <c r="B37" t="s">
-        <v>343</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>129</v>
-      </c>
-      <c r="B38" t="s">
-        <v>341</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>130</v>
-      </c>
-      <c r="B39" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>131</v>
-      </c>
-      <c r="B40" t="s">
-        <v>341</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>132</v>
-      </c>
-      <c r="B41" t="s">
-        <v>342</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>134</v>
-      </c>
-      <c r="B42" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="B71" t="s">
+        <v>298</v>
+      </c>
+      <c r="C71" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>135</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B72" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>136</v>
-      </c>
-      <c r="B44" t="s">
-        <v>342</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>137</v>
-      </c>
-      <c r="B45" t="s">
-        <v>342</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>138</v>
-      </c>
-      <c r="B46" t="s">
-        <v>342</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>139</v>
-      </c>
-      <c r="B47" t="s">
-        <v>94</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="C72" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>140</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B73" t="s">
         <v>86</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>141</v>
-      </c>
-      <c r="B49" t="s">
-        <v>342</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>142</v>
-      </c>
-      <c r="B50" t="s">
-        <v>342</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="C73" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>144</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B74" t="s">
         <v>86</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="C74" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>145</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B75" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="C75" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>146</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B76" t="s">
         <v>86</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>147</v>
-      </c>
-      <c r="B54" t="s">
-        <v>343</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>148</v>
-      </c>
-      <c r="B55" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>149</v>
-      </c>
-      <c r="B56" t="s">
-        <v>342</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>150</v>
-      </c>
-      <c r="B57" t="s">
-        <v>340</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>151</v>
-      </c>
-      <c r="B58" t="s">
-        <v>341</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="C76" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>152</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B77" t="s">
         <v>86</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>153</v>
-      </c>
-      <c r="B60" t="s">
-        <v>342</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>155</v>
-      </c>
-      <c r="B61" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>156</v>
-      </c>
-      <c r="B62" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>157</v>
-      </c>
-      <c r="B63" t="s">
-        <v>342</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>158</v>
-      </c>
-      <c r="B64" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>159</v>
-      </c>
-      <c r="B65" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>160</v>
-      </c>
-      <c r="B66" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>161</v>
-      </c>
-      <c r="B67" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>162</v>
-      </c>
-      <c r="B68" t="s">
-        <v>342</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>163</v>
-      </c>
-      <c r="B69" t="s">
-        <v>342</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>164</v>
-      </c>
-      <c r="B70" t="s">
-        <v>342</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>165</v>
-      </c>
-      <c r="B71" t="s">
-        <v>342</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>166</v>
-      </c>
-      <c r="B72" t="s">
-        <v>124</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>167</v>
-      </c>
-      <c r="B73" t="s">
-        <v>346</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>89</v>
-      </c>
-      <c r="B74" t="s">
-        <v>89</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>173</v>
-      </c>
-      <c r="B75" t="s">
-        <v>342</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>174</v>
-      </c>
-      <c r="B76" t="s">
-        <v>342</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>175</v>
-      </c>
-      <c r="B77" t="s">
-        <v>343</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C77" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>176</v>
+        <v>86</v>
       </c>
       <c r="B78" t="s">
-        <v>341</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="C78" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="B79" t="s">
-        <v>341</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="C79" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="B80" t="s">
-        <v>343</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="C80" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="B81" t="s">
-        <v>341</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="C81" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c r="B82" t="s">
-        <v>342</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="C82" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="B83" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="C83" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>188</v>
+        <v>250</v>
       </c>
       <c r="B84" t="s">
-        <v>343</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="C84" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>251</v>
       </c>
       <c r="B85" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C85" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>189</v>
+        <v>265</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+      <c r="C86" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>190</v>
+        <v>123</v>
       </c>
       <c r="B87" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+      <c r="C87" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="B88" t="s">
-        <v>86</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+      <c r="C88" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="B89" t="s">
-        <v>86</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+      <c r="C89" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B90" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+      <c r="C90" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="B91" t="s">
-        <v>342</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+      <c r="C91" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="B92" t="s">
-        <v>343</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+      <c r="C92" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="B93" t="s">
-        <v>343</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+      <c r="C93" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="B94" t="s">
-        <v>347</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+      <c r="C94" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>201</v>
+        <v>243</v>
       </c>
       <c r="B95" t="s">
-        <v>342</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+      <c r="C95" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>202</v>
+        <v>246</v>
       </c>
       <c r="B96" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+      <c r="C96" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>204</v>
+        <v>253</v>
       </c>
       <c r="B97" t="s">
         <v>124</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>254</v>
+      </c>
+      <c r="B98" t="s">
+        <v>124</v>
+      </c>
+      <c r="C98" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>262</v>
+      </c>
+      <c r="B99" t="s">
+        <v>124</v>
+      </c>
+      <c r="C99" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>263</v>
+      </c>
+      <c r="B100" t="s">
+        <v>124</v>
+      </c>
+      <c r="C100" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>268</v>
+      </c>
+      <c r="B101" t="s">
+        <v>124</v>
+      </c>
+      <c r="C101" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>269</v>
+      </c>
+      <c r="B102" t="s">
+        <v>124</v>
+      </c>
+      <c r="C102" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>271</v>
+      </c>
+      <c r="B103" t="s">
+        <v>124</v>
+      </c>
+      <c r="C103" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>276</v>
+      </c>
+      <c r="B104" t="s">
+        <v>124</v>
+      </c>
+      <c r="C104" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>277</v>
+      </c>
+      <c r="B105" t="s">
+        <v>124</v>
+      </c>
+      <c r="C105" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>200</v>
+      </c>
+      <c r="B106" t="s">
+        <v>295</v>
+      </c>
+      <c r="C106" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>206</v>
+      </c>
+      <c r="B107" t="s">
+        <v>295</v>
+      </c>
+      <c r="C107" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>207</v>
+      </c>
+      <c r="B108" t="s">
+        <v>295</v>
+      </c>
+      <c r="C108" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>281</v>
+      </c>
+      <c r="B109" t="s">
+        <v>295</v>
+      </c>
+      <c r="C109" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>120</v>
+      </c>
+      <c r="B110" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
+      <c r="C110" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>178</v>
+      </c>
+      <c r="B111" t="s">
+        <v>296</v>
+      </c>
+      <c r="C111" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>180</v>
+      </c>
+      <c r="B112" t="s">
+        <v>296</v>
+      </c>
+      <c r="C112" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>257</v>
+      </c>
+      <c r="B113" t="s">
+        <v>296</v>
+      </c>
+      <c r="C113" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>228</v>
+      </c>
+      <c r="B114" t="s">
+        <v>292</v>
+      </c>
+      <c r="C114" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>233</v>
+      </c>
+      <c r="B115" t="s">
+        <v>292</v>
+      </c>
+      <c r="C115" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>266</v>
+      </c>
+      <c r="B116" t="s">
+        <v>292</v>
+      </c>
+      <c r="C116" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>196</v>
+      </c>
+      <c r="B117" t="s">
+        <v>292</v>
+      </c>
+      <c r="C117" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>267</v>
+      </c>
+      <c r="B118" t="s">
+        <v>292</v>
+      </c>
+      <c r="C118" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>125</v>
+      </c>
+      <c r="B119" t="s">
+        <v>292</v>
+      </c>
+      <c r="C119" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>132</v>
+      </c>
+      <c r="B120" t="s">
+        <v>292</v>
+      </c>
+      <c r="C120" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>136</v>
+      </c>
+      <c r="B121" t="s">
+        <v>292</v>
+      </c>
+      <c r="C121" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>137</v>
+      </c>
+      <c r="B122" t="s">
+        <v>292</v>
+      </c>
+      <c r="C122" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>138</v>
+      </c>
+      <c r="B123" t="s">
+        <v>292</v>
+      </c>
+      <c r="C123" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>141</v>
+      </c>
+      <c r="B124" t="s">
+        <v>292</v>
+      </c>
+      <c r="C124" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>142</v>
+      </c>
+      <c r="B125" t="s">
+        <v>292</v>
+      </c>
+      <c r="C125" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>148</v>
+      </c>
+      <c r="B126" t="s">
+        <v>292</v>
+      </c>
+      <c r="C126" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>149</v>
+      </c>
+      <c r="B127" t="s">
+        <v>292</v>
+      </c>
+      <c r="C127" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>153</v>
+      </c>
+      <c r="B128" t="s">
+        <v>292</v>
+      </c>
+      <c r="C128" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>157</v>
+      </c>
+      <c r="B129" t="s">
+        <v>292</v>
+      </c>
+      <c r="C129" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>160</v>
+      </c>
+      <c r="B130" t="s">
+        <v>292</v>
+      </c>
+      <c r="C130" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>161</v>
+      </c>
+      <c r="B131" t="s">
+        <v>292</v>
+      </c>
+      <c r="C131" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>162</v>
+      </c>
+      <c r="B132" t="s">
+        <v>292</v>
+      </c>
+      <c r="C132" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>163</v>
+      </c>
+      <c r="B133" t="s">
+        <v>292</v>
+      </c>
+      <c r="C133" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>164</v>
+      </c>
+      <c r="B134" t="s">
+        <v>292</v>
+      </c>
+      <c r="C134" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>165</v>
+      </c>
+      <c r="B135" t="s">
+        <v>292</v>
+      </c>
+      <c r="C135" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>173</v>
+      </c>
+      <c r="B136" t="s">
+        <v>292</v>
+      </c>
+      <c r="C136" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>174</v>
+      </c>
+      <c r="B137" t="s">
+        <v>292</v>
+      </c>
+      <c r="C137" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>184</v>
+      </c>
+      <c r="B138" t="s">
+        <v>292</v>
+      </c>
+      <c r="C138" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>185</v>
+      </c>
+      <c r="B139" t="s">
+        <v>292</v>
+      </c>
+      <c r="C139" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>186</v>
+      </c>
+      <c r="B140" t="s">
+        <v>292</v>
+      </c>
+      <c r="C140" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>187</v>
+      </c>
+      <c r="B141" t="s">
+        <v>292</v>
+      </c>
+      <c r="C141" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>190</v>
+      </c>
+      <c r="B142" t="s">
+        <v>292</v>
+      </c>
+      <c r="C142" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>193</v>
+      </c>
+      <c r="B143" t="s">
+        <v>292</v>
+      </c>
+      <c r="C143" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>194</v>
+      </c>
+      <c r="B144" t="s">
+        <v>292</v>
+      </c>
+      <c r="C144" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>201</v>
+      </c>
+      <c r="B145" t="s">
+        <v>292</v>
+      </c>
+      <c r="C145" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>205</v>
       </c>
-      <c r="B98" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>206</v>
-      </c>
-      <c r="B99" t="s">
-        <v>347</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>207</v>
-      </c>
-      <c r="B100" t="s">
-        <v>347</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>208</v>
-      </c>
-      <c r="B101" t="s">
-        <v>340</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
+      <c r="B146" t="s">
+        <v>292</v>
+      </c>
+      <c r="C146" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>209</v>
       </c>
-      <c r="B102" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>210</v>
-      </c>
-      <c r="B103" t="s">
-        <v>340</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
+      <c r="B147" t="s">
+        <v>292</v>
+      </c>
+      <c r="C147" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>211</v>
       </c>
-      <c r="B104" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
+      <c r="B148" t="s">
+        <v>292</v>
+      </c>
+      <c r="C148" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>212</v>
       </c>
-      <c r="B105" t="s">
-        <v>342</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
+      <c r="B149" t="s">
+        <v>292</v>
+      </c>
+      <c r="C149" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>213</v>
       </c>
-      <c r="B106" t="s">
-        <v>342</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>214</v>
-      </c>
-      <c r="B107" t="s">
-        <v>343</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
+      <c r="B150" t="s">
+        <v>292</v>
+      </c>
+      <c r="C150" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>215</v>
       </c>
-      <c r="B108" t="s">
-        <v>342</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
+      <c r="B151" t="s">
+        <v>292</v>
+      </c>
+      <c r="C151" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>216</v>
       </c>
-      <c r="B109" t="s">
-        <v>342</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>217</v>
-      </c>
-      <c r="B110" t="s">
-        <v>124</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
+      <c r="B152" t="s">
+        <v>292</v>
+      </c>
+      <c r="C152" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>218</v>
       </c>
-      <c r="B111" t="s">
-        <v>342</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
+      <c r="B153" t="s">
+        <v>292</v>
+      </c>
+      <c r="C153" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>219</v>
       </c>
-      <c r="B112" t="s">
-        <v>342</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>221</v>
-      </c>
-      <c r="B113" t="s">
-        <v>341</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>222</v>
-      </c>
-      <c r="B114" t="s">
-        <v>341</v>
-      </c>
-      <c r="C114" s="1" t="s">
+      <c r="B154" t="s">
+        <v>292</v>
+      </c>
+      <c r="C154" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>227</v>
+      </c>
+      <c r="B155" t="s">
+        <v>292</v>
+      </c>
+      <c r="C155" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>232</v>
+      </c>
+      <c r="B156" t="s">
+        <v>292</v>
+      </c>
+      <c r="C156" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>234</v>
+      </c>
+      <c r="B157" t="s">
+        <v>292</v>
+      </c>
+      <c r="C157" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>236</v>
+      </c>
+      <c r="B158" t="s">
+        <v>292</v>
+      </c>
+      <c r="C158" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>238</v>
+      </c>
+      <c r="B159" t="s">
+        <v>292</v>
+      </c>
+      <c r="C159" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>242</v>
+      </c>
+      <c r="B160" t="s">
+        <v>292</v>
+      </c>
+      <c r="C160" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>244</v>
+      </c>
+      <c r="B161" t="s">
+        <v>292</v>
+      </c>
+      <c r="C161" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>245</v>
+      </c>
+      <c r="B162" t="s">
+        <v>292</v>
+      </c>
+      <c r="C162" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>247</v>
+      </c>
+      <c r="B163" t="s">
+        <v>292</v>
+      </c>
+      <c r="C163" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>248</v>
+      </c>
+      <c r="B164" t="s">
+        <v>292</v>
+      </c>
+      <c r="C164" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>249</v>
+      </c>
+      <c r="B165" t="s">
+        <v>292</v>
+      </c>
+      <c r="C165" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>252</v>
+      </c>
+      <c r="B166" t="s">
+        <v>292</v>
+      </c>
+      <c r="C166" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>258</v>
+      </c>
+      <c r="B167" t="s">
+        <v>292</v>
+      </c>
+      <c r="C167" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>259</v>
+      </c>
+      <c r="B168" t="s">
+        <v>292</v>
+      </c>
+      <c r="C168" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>261</v>
+      </c>
+      <c r="B169" t="s">
+        <v>292</v>
+      </c>
+      <c r="C169" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>272</v>
+      </c>
+      <c r="B170" t="s">
+        <v>292</v>
+      </c>
+      <c r="C170" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>275</v>
+      </c>
+      <c r="B171" t="s">
+        <v>292</v>
+      </c>
+      <c r="C171" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>282</v>
+      </c>
+      <c r="B172" t="s">
+        <v>292</v>
+      </c>
+      <c r="C172" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>231</v>
+      </c>
+      <c r="B173" t="s">
+        <v>297</v>
+      </c>
+      <c r="C173" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>241</v>
+      </c>
+      <c r="B174" t="s">
+        <v>297</v>
+      </c>
+      <c r="C174" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>283</v>
+      </c>
+      <c r="B175" t="s">
+        <v>297</v>
+      </c>
+      <c r="C175" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>181</v>
+      </c>
+      <c r="B176" t="s">
+        <v>94</v>
+      </c>
+      <c r="C176" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>182</v>
+      </c>
+      <c r="B177" t="s">
+        <v>94</v>
+      </c>
+      <c r="C177" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>198</v>
+      </c>
+      <c r="B178" t="s">
+        <v>94</v>
+      </c>
+      <c r="C178" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>199</v>
+      </c>
+      <c r="B179" t="s">
+        <v>94</v>
+      </c>
+      <c r="C179" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>231</v>
+      </c>
+      <c r="B180" t="s">
+        <v>94</v>
+      </c>
+      <c r="C180" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>134</v>
+      </c>
+      <c r="B181" t="s">
+        <v>94</v>
+      </c>
+      <c r="C181" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>139</v>
+      </c>
+      <c r="B182" t="s">
+        <v>94</v>
+      </c>
+      <c r="C182" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>154</v>
+      </c>
+      <c r="B183" t="s">
+        <v>94</v>
+      </c>
+      <c r="C183" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>156</v>
+      </c>
+      <c r="B184" t="s">
+        <v>94</v>
+      </c>
+      <c r="C184" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>220</v>
+      </c>
+      <c r="B185" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>223</v>
-      </c>
-      <c r="B115" t="s">
-        <v>341</v>
-      </c>
-      <c r="C115" s="1" t="s">
+      <c r="C185" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>240</v>
+      </c>
+      <c r="B186" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>224</v>
-      </c>
-      <c r="B116" t="s">
-        <v>86</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>225</v>
-      </c>
-      <c r="B117" t="s">
-        <v>86</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>226</v>
-      </c>
-      <c r="B118" t="s">
-        <v>124</v>
-      </c>
-      <c r="C118" s="1" t="s">
+      <c r="C186" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>154</v>
+      </c>
+      <c r="B187" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>227</v>
-      </c>
-      <c r="B119" t="s">
-        <v>342</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>229</v>
-      </c>
-      <c r="B120" t="s">
-        <v>124</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>230</v>
-      </c>
-      <c r="B121" t="s">
-        <v>124</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>232</v>
-      </c>
-      <c r="B122" t="s">
-        <v>342</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>234</v>
-      </c>
-      <c r="B123" t="s">
-        <v>342</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>235</v>
-      </c>
-      <c r="B124" t="s">
-        <v>340</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>236</v>
-      </c>
-      <c r="B125" t="s">
-        <v>342</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>237</v>
-      </c>
-      <c r="B126" t="s">
-        <v>343</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>238</v>
-      </c>
-      <c r="B127" t="s">
-        <v>342</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>239</v>
-      </c>
-      <c r="B128" t="s">
-        <v>343</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
-        <v>242</v>
-      </c>
-      <c r="B129" t="s">
-        <v>342</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>243</v>
-      </c>
-      <c r="B130" t="s">
-        <v>124</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>244</v>
-      </c>
-      <c r="B131" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>245</v>
-      </c>
-      <c r="B132" t="s">
-        <v>342</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
-        <v>246</v>
-      </c>
-      <c r="B133" t="s">
-        <v>124</v>
-      </c>
-      <c r="C133" s="1" t="s">
+      <c r="C187" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>167</v>
+      </c>
+      <c r="B188" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
-        <v>247</v>
-      </c>
-      <c r="B134" t="s">
-        <v>342</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
-        <v>248</v>
-      </c>
-      <c r="B135" t="s">
-        <v>342</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>249</v>
-      </c>
-      <c r="B136" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>250</v>
-      </c>
-      <c r="B137" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>251</v>
-      </c>
-      <c r="B138" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
-        <v>252</v>
-      </c>
-      <c r="B139" t="s">
-        <v>342</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
-        <v>253</v>
-      </c>
-      <c r="B140" t="s">
-        <v>124</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
-        <v>254</v>
-      </c>
-      <c r="B141" t="s">
-        <v>124</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>255</v>
-      </c>
-      <c r="B142" t="s">
-        <v>340</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>256</v>
-      </c>
-      <c r="B143" t="s">
-        <v>340</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>257</v>
-      </c>
-      <c r="B144" t="s">
-        <v>348</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
-        <v>258</v>
-      </c>
-      <c r="B145" t="s">
-        <v>342</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
-        <v>259</v>
-      </c>
-      <c r="B146" t="s">
-        <v>342</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
-        <v>260</v>
-      </c>
-      <c r="B147" t="s">
-        <v>340</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
-        <v>261</v>
-      </c>
-      <c r="B148" t="s">
-        <v>342</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
-        <v>262</v>
-      </c>
-      <c r="B149" t="s">
-        <v>124</v>
-      </c>
-      <c r="C149" s="1" t="s">
+      <c r="C188" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>168</v>
+      </c>
+      <c r="B189" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
-        <v>263</v>
-      </c>
-      <c r="B150" t="s">
-        <v>124</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
-        <v>264</v>
-      </c>
-      <c r="B151" t="s">
-        <v>340</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
-        <v>268</v>
-      </c>
-      <c r="B152" t="s">
-        <v>124</v>
-      </c>
-      <c r="C152" s="1" t="s">
+      <c r="C189" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>171</v>
+      </c>
+      <c r="B190" t="s">
+        <v>294</v>
+      </c>
+      <c r="C190" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
-        <v>269</v>
-      </c>
-      <c r="B153" t="s">
-        <v>124</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
-        <v>270</v>
-      </c>
-      <c r="B154" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
-        <v>271</v>
-      </c>
-      <c r="B155" t="s">
-        <v>124</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
-        <v>272</v>
-      </c>
-      <c r="B156" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
-        <v>273</v>
-      </c>
-      <c r="B157" t="s">
-        <v>341</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
-        <v>274</v>
-      </c>
-      <c r="B158" t="s">
-        <v>341</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
-        <v>275</v>
-      </c>
-      <c r="B159" t="s">
-        <v>342</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
-        <v>276</v>
-      </c>
-      <c r="B160" t="s">
-        <v>124</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
-        <v>277</v>
-      </c>
-      <c r="B161" t="s">
-        <v>124</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
-        <v>278</v>
-      </c>
-      <c r="B162" t="s">
-        <v>340</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
-        <v>279</v>
-      </c>
-      <c r="B163" t="s">
-        <v>89</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
-        <v>280</v>
-      </c>
-      <c r="B164" t="s">
-        <v>89</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
-        <v>281</v>
-      </c>
-      <c r="B165" t="s">
-        <v>347</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
-        <v>282</v>
-      </c>
-      <c r="B166" t="s">
-        <v>342</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
-        <v>284</v>
-      </c>
-      <c r="B167" t="s">
-        <v>341</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
-        <v>285</v>
-      </c>
-      <c r="B168" t="s">
-        <v>341</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>294</v>
+      <c r="B191" t="s">
+        <v>292</v>
+      </c>
+      <c r="C191" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>